--- a/excel/Disney Affection Report_v2.xlsx
+++ b/excel/Disney Affection Report_v2.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barby010\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ServiceAwardCalendar\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695DFC45-0432-4663-895F-607A3369051C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E450D5D-F491-4539-9CC4-B7784644773C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{98FB5A6A-DF5F-4FC8-82CF-B00F6488695F}"/>
+    <workbookView xWindow="-9705" yWindow="-16320" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{98FB5A6A-DF5F-4FC8-82CF-B00F6488695F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7634" uniqueCount="2666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7875" uniqueCount="2666">
   <si>
     <t>10019519</t>
   </si>
@@ -8095,7 +8096,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8120,8 +8121,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -8129,37 +8136,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8167,45 +8230,6 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{A9CCF927-BE81-41A8-AC43-1406BF51D0E3}"/>
   </cellStyles>
   <dxfs count="13">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -8364,6 +8388,45 @@
       </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -8378,20 +8441,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0B50F347-CF84-4C26-8AC0-2B61F7C74D2C}" name="Table1" displayName="Table1" ref="B2:L765" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
-  <autoFilter ref="B2:L765" xr:uid="{0B50F347-CF84-4C26-8AC0-2B61F7C74D2C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0B50F347-CF84-4C26-8AC0-2B61F7C74D2C}" name="Table1" displayName="Table1" ref="B2:L765" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+  <autoFilter ref="B2:L765" xr:uid="{0B50F347-CF84-4C26-8AC0-2B61F7C74D2C}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="MARCOS.LUCENA@DISNEY.COM"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="11" xr3:uid="{AADC0B11-85CB-4C16-B7AA-DD37C18B49AD}" name="Company Code" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{6718FCB7-6462-4807-81ED-458562EC5731}" name="Employee ID" dataDxfId="11" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{EDEEAF9E-5BE4-4FEA-9D05-AE5FF0E1D86A}" name="Employee" dataDxfId="10" dataCellStyle="Normal 2"/>
-    <tableColumn id="6" xr3:uid="{F116095E-8570-443B-BDF4-D19D9BFD2AEE}" name="Email - Primary Work" dataDxfId="9" dataCellStyle="Normal 2"/>
-    <tableColumn id="13" xr3:uid="{E02640EB-700C-4F0B-8EDB-441443BA82AE}" name="Adjusted Service Date" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{113D4C87-ACD5-4AFF-9D6C-5BB255492FB6}" name="Manager Employee ID" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{4C187F96-5894-4F42-BF72-CD98730DD602}" name="Manager" dataDxfId="6" dataCellStyle="Normal 2"/>
-    <tableColumn id="8" xr3:uid="{8F60FD2E-1459-48E6-9836-ACEF9D0C4768}" name="Manager Email" dataDxfId="5" dataCellStyle="Normal 2"/>
-    <tableColumn id="1" xr3:uid="{E0E56284-4E93-42DB-B431-80DF2FED9A79}" name="Lowest Level Executive - Pernr" dataDxfId="4" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{7768522E-7844-43E0-9CF4-65A765DF94E4}" name="Lowest Level Executive" dataDxfId="3" dataCellStyle="Normal 2"/>
-    <tableColumn id="5" xr3:uid="{E874AF85-BCAB-43FF-A8F8-75574E637357}" name="Lowest Level Executive - Email Address" dataDxfId="2" dataCellStyle="Normal 2"/>
+    <tableColumn id="11" xr3:uid="{AADC0B11-85CB-4C16-B7AA-DD37C18B49AD}" name="Company Code" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{6718FCB7-6462-4807-81ED-458562EC5731}" name="Employee ID" dataDxfId="9" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{EDEEAF9E-5BE4-4FEA-9D05-AE5FF0E1D86A}" name="Employee" dataDxfId="8" dataCellStyle="Normal 2"/>
+    <tableColumn id="6" xr3:uid="{F116095E-8570-443B-BDF4-D19D9BFD2AEE}" name="Email - Primary Work" dataDxfId="7" dataCellStyle="Normal 2"/>
+    <tableColumn id="13" xr3:uid="{E02640EB-700C-4F0B-8EDB-441443BA82AE}" name="Adjusted Service Date" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{113D4C87-ACD5-4AFF-9D6C-5BB255492FB6}" name="Manager Employee ID" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{4C187F96-5894-4F42-BF72-CD98730DD602}" name="Manager" dataDxfId="4" dataCellStyle="Normal 2"/>
+    <tableColumn id="8" xr3:uid="{8F60FD2E-1459-48E6-9836-ACEF9D0C4768}" name="Manager Email" dataDxfId="3" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" xr3:uid="{E0E56284-4E93-42DB-B431-80DF2FED9A79}" name="Lowest Level Executive - Pernr" dataDxfId="2" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{7768522E-7844-43E0-9CF4-65A765DF94E4}" name="Lowest Level Executive" dataDxfId="1" dataCellStyle="Normal 2"/>
+    <tableColumn id="5" xr3:uid="{E874AF85-BCAB-43FF-A8F8-75574E637357}" name="Lowest Level Executive - Email Address" dataDxfId="0" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8716,55 +8785,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C5C6E2-558D-4BE7-9D2C-4BA49F857161}">
   <dimension ref="B2:L765"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D649" sqref="D649"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:L716"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.26953125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="5" customWidth="1"/>
-    <col min="4" max="12" width="17.1796875" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="8.7265625" style="5"/>
+    <col min="1" max="1" width="3.21875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="5" customWidth="1"/>
+    <col min="4" max="12" width="17.21875" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="8.77734375" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="2:12" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
         <v>1202</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>763</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>2552</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>764</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>2551</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>2467</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>2290</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>2383</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>2553</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>2554</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>2555</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>1204</v>
       </c>
@@ -8799,7 +8868,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>1204</v>
       </c>
@@ -8834,7 +8903,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>1203</v>
       </c>
@@ -8869,7 +8938,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>1205</v>
       </c>
@@ -8904,7 +8973,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>1204</v>
       </c>
@@ -8939,7 +9008,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>1204</v>
       </c>
@@ -8974,7 +9043,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>1203</v>
       </c>
@@ -9009,7 +9078,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>1203</v>
       </c>
@@ -9044,7 +9113,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>1204</v>
       </c>
@@ -9079,7 +9148,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>1204</v>
       </c>
@@ -9114,7 +9183,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>1204</v>
       </c>
@@ -9149,7 +9218,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>1203</v>
       </c>
@@ -9184,7 +9253,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>1204</v>
       </c>
@@ -9219,7 +9288,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>1203</v>
       </c>
@@ -9254,7 +9323,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>1203</v>
       </c>
@@ -9289,7 +9358,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>1203</v>
       </c>
@@ -9324,7 +9393,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>1203</v>
       </c>
@@ -9359,7 +9428,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>1204</v>
       </c>
@@ -9394,7 +9463,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>1203</v>
       </c>
@@ -9429,7 +9498,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>1204</v>
       </c>
@@ -9464,7 +9533,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>1203</v>
       </c>
@@ -9499,7 +9568,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>1203</v>
       </c>
@@ -9534,7 +9603,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>1204</v>
       </c>
@@ -9569,7 +9638,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>1205</v>
       </c>
@@ -9604,7 +9673,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>1204</v>
       </c>
@@ -9639,7 +9708,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>1205</v>
       </c>
@@ -9674,7 +9743,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>1204</v>
       </c>
@@ -9709,7 +9778,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>1204</v>
       </c>
@@ -9744,7 +9813,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>1203</v>
       </c>
@@ -9779,7 +9848,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>1204</v>
       </c>
@@ -9814,7 +9883,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>1203</v>
       </c>
@@ -9849,7 +9918,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>1204</v>
       </c>
@@ -9884,7 +9953,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>1203</v>
       </c>
@@ -9919,7 +9988,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>1203</v>
       </c>
@@ -9954,7 +10023,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>1203</v>
       </c>
@@ -9989,7 +10058,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>1205</v>
       </c>
@@ -10024,7 +10093,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>1203</v>
       </c>
@@ -10059,7 +10128,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="40" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>1203</v>
       </c>
@@ -10094,7 +10163,7 @@
         <v>2571</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>1205</v>
       </c>
@@ -10129,7 +10198,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>1203</v>
       </c>
@@ -10164,7 +10233,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="43" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>1203</v>
       </c>
@@ -10199,7 +10268,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>1203</v>
       </c>
@@ -10234,7 +10303,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>1203</v>
       </c>
@@ -10269,7 +10338,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>1203</v>
       </c>
@@ -10304,7 +10373,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="47" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>1205</v>
       </c>
@@ -10339,7 +10408,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="48" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>1203</v>
       </c>
@@ -10374,7 +10443,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="49" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>1203</v>
       </c>
@@ -10409,7 +10478,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="50" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>1203</v>
       </c>
@@ -10444,7 +10513,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="51" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>1203</v>
       </c>
@@ -10479,7 +10548,7 @@
         <v>2583</v>
       </c>
     </row>
-    <row r="52" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>1205</v>
       </c>
@@ -10514,7 +10583,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="53" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>1203</v>
       </c>
@@ -10549,7 +10618,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="54" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>1204</v>
       </c>
@@ -10584,7 +10653,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="55" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
         <v>1203</v>
       </c>
@@ -10619,7 +10688,7 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="56" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>1203</v>
       </c>
@@ -10654,7 +10723,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="57" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>1204</v>
       </c>
@@ -10689,7 +10758,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="58" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>1204</v>
       </c>
@@ -10724,7 +10793,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="59" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>1203</v>
       </c>
@@ -10759,7 +10828,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="60" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
         <v>1204</v>
       </c>
@@ -10794,7 +10863,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="61" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>1204</v>
       </c>
@@ -10829,7 +10898,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="62" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>1204</v>
       </c>
@@ -10864,7 +10933,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="63" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
         <v>1204</v>
       </c>
@@ -10899,7 +10968,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="64" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
         <v>1203</v>
       </c>
@@ -10934,7 +11003,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="65" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
         <v>1203</v>
       </c>
@@ -10969,7 +11038,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="66" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>1203</v>
       </c>
@@ -11004,7 +11073,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="67" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
         <v>1203</v>
       </c>
@@ -11039,7 +11108,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="68" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
         <v>1204</v>
       </c>
@@ -11074,7 +11143,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="69" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
         <v>1204</v>
       </c>
@@ -11109,7 +11178,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="70" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
         <v>1204</v>
       </c>
@@ -11144,7 +11213,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="71" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
         <v>1203</v>
       </c>
@@ -11179,7 +11248,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="72" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
         <v>1203</v>
       </c>
@@ -11214,7 +11283,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="73" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
         <v>1204</v>
       </c>
@@ -11249,7 +11318,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="74" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
         <v>1203</v>
       </c>
@@ -11284,7 +11353,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="75" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
         <v>1204</v>
       </c>
@@ -11319,7 +11388,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="76" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
         <v>1203</v>
       </c>
@@ -11354,7 +11423,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="77" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
         <v>1203</v>
       </c>
@@ -11389,7 +11458,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="78" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
         <v>1203</v>
       </c>
@@ -11424,7 +11493,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="79" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
         <v>1203</v>
       </c>
@@ -11459,7 +11528,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="80" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
         <v>1205</v>
       </c>
@@ -11494,7 +11563,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="81" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="2" t="s">
         <v>1203</v>
       </c>
@@ -11529,7 +11598,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="82" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
         <v>1204</v>
       </c>
@@ -11564,7 +11633,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="83" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
         <v>1204</v>
       </c>
@@ -11599,7 +11668,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="84" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="2" t="s">
         <v>1204</v>
       </c>
@@ -11634,7 +11703,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="85" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="2" t="s">
         <v>1204</v>
       </c>
@@ -11669,7 +11738,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="86" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="2" t="s">
         <v>1203</v>
       </c>
@@ -11704,7 +11773,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="87" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
         <v>1204</v>
       </c>
@@ -11739,7 +11808,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="88" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
         <v>1203</v>
       </c>
@@ -11774,7 +11843,7 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="89" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="2" t="s">
         <v>1204</v>
       </c>
@@ -11809,7 +11878,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="90" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
         <v>1203</v>
       </c>
@@ -11844,7 +11913,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="91" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="2" t="s">
         <v>1203</v>
       </c>
@@ -11879,7 +11948,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="92" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="2" t="s">
         <v>1204</v>
       </c>
@@ -11914,7 +11983,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="93" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="2" t="s">
         <v>1203</v>
       </c>
@@ -11949,7 +12018,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="94" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="2" t="s">
         <v>1204</v>
       </c>
@@ -11984,7 +12053,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="95" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="2" t="s">
         <v>1203</v>
       </c>
@@ -12019,7 +12088,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="96" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="2" t="s">
         <v>1204</v>
       </c>
@@ -12054,7 +12123,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="97" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="2" t="s">
         <v>1203</v>
       </c>
@@ -12089,7 +12158,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="98" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="2" t="s">
         <v>1203</v>
       </c>
@@ -12124,7 +12193,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="99" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="2" t="s">
         <v>1204</v>
       </c>
@@ -12159,7 +12228,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="100" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="2" t="s">
         <v>1204</v>
       </c>
@@ -12194,7 +12263,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="101" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="2" t="s">
         <v>1204</v>
       </c>
@@ -12229,7 +12298,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="102" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="2" t="s">
         <v>1203</v>
       </c>
@@ -12264,7 +12333,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="103" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="2" t="s">
         <v>1203</v>
       </c>
@@ -12299,7 +12368,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="104" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="2" t="s">
         <v>1203</v>
       </c>
@@ -12334,7 +12403,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="105" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="2" t="s">
         <v>1203</v>
       </c>
@@ -12369,7 +12438,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="106" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="2" t="s">
         <v>1203</v>
       </c>
@@ -12404,7 +12473,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="107" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="2" t="s">
         <v>1203</v>
       </c>
@@ -12439,7 +12508,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="108" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="2" t="s">
         <v>1204</v>
       </c>
@@ -12474,7 +12543,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="109" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
         <v>1203</v>
       </c>
@@ -12509,7 +12578,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="110" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
         <v>1204</v>
       </c>
@@ -12544,7 +12613,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="111" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="2" t="s">
         <v>1204</v>
       </c>
@@ -12579,7 +12648,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="112" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>1204</v>
       </c>
@@ -12614,7 +12683,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="113" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="2" t="s">
         <v>1205</v>
       </c>
@@ -12649,7 +12718,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="114" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="2" t="s">
         <v>1203</v>
       </c>
@@ -12684,7 +12753,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="115" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="2" t="s">
         <v>1204</v>
       </c>
@@ -12719,7 +12788,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="116" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="2" t="s">
         <v>1204</v>
       </c>
@@ -12754,7 +12823,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="117" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="2" t="s">
         <v>1204</v>
       </c>
@@ -12789,7 +12858,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="118" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="2" t="s">
         <v>1203</v>
       </c>
@@ -12824,7 +12893,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="119" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="2" t="s">
         <v>1203</v>
       </c>
@@ -12859,7 +12928,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="120" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="2" t="s">
         <v>1204</v>
       </c>
@@ -12894,7 +12963,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="121" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="2" t="s">
         <v>1203</v>
       </c>
@@ -12929,7 +12998,7 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="122" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="2" t="s">
         <v>1204</v>
       </c>
@@ -12964,7 +13033,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="123" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="2" t="s">
         <v>1203</v>
       </c>
@@ -12999,7 +13068,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="124" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="2" t="s">
         <v>1203</v>
       </c>
@@ -13034,7 +13103,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="125" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="2" t="s">
         <v>1203</v>
       </c>
@@ -13069,7 +13138,7 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="126" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="2" t="s">
         <v>1203</v>
       </c>
@@ -13104,7 +13173,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="127" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="2" t="s">
         <v>1203</v>
       </c>
@@ -13139,7 +13208,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="128" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="2" t="s">
         <v>1204</v>
       </c>
@@ -13174,7 +13243,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="129" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="2" t="s">
         <v>1204</v>
       </c>
@@ -13209,7 +13278,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="130" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="2" t="s">
         <v>1204</v>
       </c>
@@ -13244,7 +13313,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="131" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="2" t="s">
         <v>1203</v>
       </c>
@@ -13279,7 +13348,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="132" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="2" t="s">
         <v>1203</v>
       </c>
@@ -13314,7 +13383,7 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="133" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="2" t="s">
         <v>1203</v>
       </c>
@@ -13349,7 +13418,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="134" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="2" t="s">
         <v>1204</v>
       </c>
@@ -13384,7 +13453,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="135" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="2" t="s">
         <v>1203</v>
       </c>
@@ -13419,7 +13488,7 @@
         <v>2604</v>
       </c>
     </row>
-    <row r="136" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="2" t="s">
         <v>1204</v>
       </c>
@@ -13454,7 +13523,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="137" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="2" t="s">
         <v>1204</v>
       </c>
@@ -13489,7 +13558,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="138" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="2" t="s">
         <v>1204</v>
       </c>
@@ -13524,7 +13593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="2" t="s">
         <v>1204</v>
       </c>
@@ -13559,7 +13628,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="140" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="2" t="s">
         <v>1203</v>
       </c>
@@ -13594,7 +13663,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="141" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="2" t="s">
         <v>1204</v>
       </c>
@@ -13629,7 +13698,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="142" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="2" t="s">
         <v>1204</v>
       </c>
@@ -13664,7 +13733,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="143" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="2" t="s">
         <v>1204</v>
       </c>
@@ -13699,7 +13768,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="144" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="2" t="s">
         <v>1203</v>
       </c>
@@ -13734,7 +13803,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="145" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="2" t="s">
         <v>1204</v>
       </c>
@@ -13769,7 +13838,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="146" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="2" t="s">
         <v>1203</v>
       </c>
@@ -13804,7 +13873,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="147" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="2" t="s">
         <v>1205</v>
       </c>
@@ -13839,7 +13908,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="148" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="2" t="s">
         <v>1203</v>
       </c>
@@ -13874,7 +13943,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="149" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="2" t="s">
         <v>1204</v>
       </c>
@@ -13909,7 +13978,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="150" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="2" t="s">
         <v>1204</v>
       </c>
@@ -13944,7 +14013,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="151" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="2" t="s">
         <v>1204</v>
       </c>
@@ -13979,7 +14048,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="152" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="2" t="s">
         <v>1204</v>
       </c>
@@ -14014,7 +14083,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="153" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="2" t="s">
         <v>1203</v>
       </c>
@@ -14049,7 +14118,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="154" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="2" t="s">
         <v>1204</v>
       </c>
@@ -14084,7 +14153,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="155" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="2" t="s">
         <v>1204</v>
       </c>
@@ -14119,7 +14188,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="156" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="2" t="s">
         <v>1203</v>
       </c>
@@ -14154,7 +14223,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="157" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="2" t="s">
         <v>1204</v>
       </c>
@@ -14189,7 +14258,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="158" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="2" t="s">
         <v>1204</v>
       </c>
@@ -14224,7 +14293,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="159" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="2" t="s">
         <v>1204</v>
       </c>
@@ -14259,7 +14328,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="160" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="2" t="s">
         <v>1204</v>
       </c>
@@ -14294,7 +14363,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="161" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="2" t="s">
         <v>1203</v>
       </c>
@@ -14329,7 +14398,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="162" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="2" t="s">
         <v>1203</v>
       </c>
@@ -14364,7 +14433,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="163" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="2" t="s">
         <v>1203</v>
       </c>
@@ -14399,7 +14468,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="164" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="2" t="s">
         <v>1203</v>
       </c>
@@ -14434,7 +14503,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="165" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="2" t="s">
         <v>1203</v>
       </c>
@@ -14469,7 +14538,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="166" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="2" t="s">
         <v>1203</v>
       </c>
@@ -14504,7 +14573,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="167" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="2" t="s">
         <v>1203</v>
       </c>
@@ -14539,7 +14608,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="168" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="2" t="s">
         <v>1204</v>
       </c>
@@ -14574,7 +14643,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="169" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="2" t="s">
         <v>1204</v>
       </c>
@@ -14609,7 +14678,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="170" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="2" t="s">
         <v>1204</v>
       </c>
@@ -14644,7 +14713,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="171" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="2" t="s">
         <v>1204</v>
       </c>
@@ -14679,7 +14748,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="172" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="2" t="s">
         <v>1204</v>
       </c>
@@ -14714,7 +14783,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="173" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="2" t="s">
         <v>1204</v>
       </c>
@@ -14749,7 +14818,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="174" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="2" t="s">
         <v>1204</v>
       </c>
@@ -14784,7 +14853,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="175" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="2" t="s">
         <v>1205</v>
       </c>
@@ -14819,7 +14888,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="176" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="2" t="s">
         <v>1205</v>
       </c>
@@ -14854,7 +14923,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="177" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="2" t="s">
         <v>1203</v>
       </c>
@@ -14889,7 +14958,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="178" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="2" t="s">
         <v>1203</v>
       </c>
@@ -14924,7 +14993,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="179" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="2" t="s">
         <v>1203</v>
       </c>
@@ -14959,7 +15028,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="180" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="2" t="s">
         <v>1203</v>
       </c>
@@ -14994,7 +15063,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="181" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="2" t="s">
         <v>1204</v>
       </c>
@@ -15029,7 +15098,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="182" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="2" t="s">
         <v>1204</v>
       </c>
@@ -15064,7 +15133,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="183" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="2" t="s">
         <v>1204</v>
       </c>
@@ -15099,7 +15168,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="184" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="2" t="s">
         <v>1204</v>
       </c>
@@ -15134,7 +15203,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="185" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="2" t="s">
         <v>1204</v>
       </c>
@@ -15169,7 +15238,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="186" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="2" t="s">
         <v>1204</v>
       </c>
@@ -15204,7 +15273,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="187" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="2" t="s">
         <v>1203</v>
       </c>
@@ -15239,7 +15308,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="188" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="2" t="s">
         <v>1204</v>
       </c>
@@ -15274,7 +15343,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="189" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="2" t="s">
         <v>1203</v>
       </c>
@@ -15309,7 +15378,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="190" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="2" t="s">
         <v>1203</v>
       </c>
@@ -15344,7 +15413,7 @@
         <v>2613</v>
       </c>
     </row>
-    <row r="191" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="2" t="s">
         <v>1203</v>
       </c>
@@ -15379,7 +15448,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="192" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="2" t="s">
         <v>1204</v>
       </c>
@@ -15414,7 +15483,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="193" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="2" t="s">
         <v>1203</v>
       </c>
@@ -15449,7 +15518,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="194" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="2" t="s">
         <v>1204</v>
       </c>
@@ -15484,7 +15553,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="195" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="2" t="s">
         <v>1203</v>
       </c>
@@ -15519,7 +15588,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="196" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="2" t="s">
         <v>1204</v>
       </c>
@@ -15554,7 +15623,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="197" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="2" t="s">
         <v>1204</v>
       </c>
@@ -15589,7 +15658,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="198" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="2" t="s">
         <v>1204</v>
       </c>
@@ -15624,7 +15693,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="199" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="2" t="s">
         <v>1204</v>
       </c>
@@ -15659,7 +15728,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="200" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="2" t="s">
         <v>1204</v>
       </c>
@@ -15694,7 +15763,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="201" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="2" t="s">
         <v>1203</v>
       </c>
@@ -15729,7 +15798,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="202" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="2" t="s">
         <v>1203</v>
       </c>
@@ -15764,7 +15833,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="203" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="2" t="s">
         <v>1203</v>
       </c>
@@ -15799,29 +15868,29 @@
         <v>766</v>
       </c>
     </row>
-    <row r="204" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B204" s="6" t="s">
+    <row r="204" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B204" s="4" t="s">
         <v>1203</v>
       </c>
-      <c r="C204" s="6" t="s">
+      <c r="C204" s="4" t="s">
         <v>760</v>
       </c>
-      <c r="D204" s="6" t="s">
+      <c r="D204" s="4" t="s">
         <v>1962</v>
       </c>
-      <c r="E204" s="6" t="s">
+      <c r="E204" s="4" t="s">
         <v>2287</v>
       </c>
       <c r="F204" s="3">
         <v>45734</v>
       </c>
-      <c r="G204" s="6" t="s">
+      <c r="G204" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H204" s="6" t="s">
+      <c r="H204" s="4" t="s">
         <v>1314</v>
       </c>
-      <c r="I204" s="6" t="s">
+      <c r="I204" s="4" t="s">
         <v>873</v>
       </c>
       <c r="J204" s="4" t="s">
@@ -15834,7 +15903,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="205" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="2" t="s">
         <v>1204</v>
       </c>
@@ -15869,7 +15938,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="206" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="2" t="s">
         <v>1203</v>
       </c>
@@ -15904,7 +15973,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="207" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="2" t="s">
         <v>1204</v>
       </c>
@@ -15939,7 +16008,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="208" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="2" t="s">
         <v>1203</v>
       </c>
@@ -15974,7 +16043,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="209" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="2" t="s">
         <v>1203</v>
       </c>
@@ -16009,7 +16078,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="210" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="2" t="s">
         <v>1203</v>
       </c>
@@ -16044,7 +16113,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="211" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="2" t="s">
         <v>1204</v>
       </c>
@@ -16079,7 +16148,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="212" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="2" t="s">
         <v>1203</v>
       </c>
@@ -16114,7 +16183,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="213" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="2" t="s">
         <v>1204</v>
       </c>
@@ -16149,7 +16218,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="214" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="2" t="s">
         <v>1203</v>
       </c>
@@ -16184,7 +16253,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="215" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="2" t="s">
         <v>1204</v>
       </c>
@@ -16219,7 +16288,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="216" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="2" t="s">
         <v>1203</v>
       </c>
@@ -16254,7 +16323,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="217" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="2" t="s">
         <v>1204</v>
       </c>
@@ -16289,7 +16358,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="218" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="2" t="s">
         <v>1204</v>
       </c>
@@ -16324,7 +16393,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="219" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="2" t="s">
         <v>1204</v>
       </c>
@@ -16359,7 +16428,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="220" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="2" t="s">
         <v>1204</v>
       </c>
@@ -16394,7 +16463,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="221" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="2" t="s">
         <v>1203</v>
       </c>
@@ -16429,7 +16498,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="222" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="2" t="s">
         <v>1204</v>
       </c>
@@ -16464,7 +16533,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="223" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="2" t="s">
         <v>1204</v>
       </c>
@@ -16499,7 +16568,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="224" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="2" t="s">
         <v>1203</v>
       </c>
@@ -16534,7 +16603,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="225" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="2" t="s">
         <v>1204</v>
       </c>
@@ -16569,7 +16638,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="226" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="2" t="s">
         <v>1204</v>
       </c>
@@ -16604,7 +16673,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="227" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="2" t="s">
         <v>1204</v>
       </c>
@@ -16639,7 +16708,7 @@
         <v>2619</v>
       </c>
     </row>
-    <row r="228" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="2" t="s">
         <v>1204</v>
       </c>
@@ -16674,7 +16743,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="229" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="2" t="s">
         <v>1204</v>
       </c>
@@ -16709,7 +16778,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="230" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="2" t="s">
         <v>1203</v>
       </c>
@@ -16744,7 +16813,7 @@
         <v>2622</v>
       </c>
     </row>
-    <row r="231" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="2" t="s">
         <v>1204</v>
       </c>
@@ -16779,7 +16848,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="232" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="2" t="s">
         <v>1204</v>
       </c>
@@ -16814,7 +16883,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="233" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="2" t="s">
         <v>1204</v>
       </c>
@@ -16849,7 +16918,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="234" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="2" t="s">
         <v>1204</v>
       </c>
@@ -16884,7 +16953,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="235" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="2" t="s">
         <v>1204</v>
       </c>
@@ -16919,7 +16988,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="236" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="2" t="s">
         <v>1203</v>
       </c>
@@ -16954,7 +17023,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="237" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="2" t="s">
         <v>1203</v>
       </c>
@@ -16989,7 +17058,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="238" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="2" t="s">
         <v>1204</v>
       </c>
@@ -17024,7 +17093,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="239" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="2" t="s">
         <v>1203</v>
       </c>
@@ -17059,7 +17128,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="240" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="2" t="s">
         <v>1204</v>
       </c>
@@ -17094,7 +17163,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="241" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="2" t="s">
         <v>1204</v>
       </c>
@@ -17129,7 +17198,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="242" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="2" t="s">
         <v>1203</v>
       </c>
@@ -17164,7 +17233,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="243" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="2" t="s">
         <v>1205</v>
       </c>
@@ -17199,7 +17268,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="244" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="2" t="s">
         <v>1204</v>
       </c>
@@ -17234,7 +17303,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="245" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="2" t="s">
         <v>1204</v>
       </c>
@@ -17269,7 +17338,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="246" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="2" t="s">
         <v>1203</v>
       </c>
@@ -17304,7 +17373,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="247" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="2" t="s">
         <v>1204</v>
       </c>
@@ -17339,7 +17408,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="248" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="2" t="s">
         <v>1204</v>
       </c>
@@ -17374,7 +17443,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="249" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="2" t="s">
         <v>1203</v>
       </c>
@@ -17409,7 +17478,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="250" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="2" t="s">
         <v>1204</v>
       </c>
@@ -17444,7 +17513,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="251" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="2" t="s">
         <v>1204</v>
       </c>
@@ -17479,7 +17548,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="252" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="2" t="s">
         <v>1203</v>
       </c>
@@ -17514,7 +17583,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="253" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="2" t="s">
         <v>1203</v>
       </c>
@@ -17549,7 +17618,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="254" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="2" t="s">
         <v>1204</v>
       </c>
@@ -17584,7 +17653,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="255" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="2" t="s">
         <v>1203</v>
       </c>
@@ -17619,7 +17688,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="256" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="2" t="s">
         <v>1203</v>
       </c>
@@ -17654,7 +17723,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="257" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="2" t="s">
         <v>1203</v>
       </c>
@@ -17689,7 +17758,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="258" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="2" t="s">
         <v>1204</v>
       </c>
@@ -17724,7 +17793,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="259" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="2" t="s">
         <v>1204</v>
       </c>
@@ -17759,7 +17828,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="260" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="2" t="s">
         <v>1204</v>
       </c>
@@ -17794,7 +17863,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="261" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="2" t="s">
         <v>1205</v>
       </c>
@@ -17829,7 +17898,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="262" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="2" t="s">
         <v>1204</v>
       </c>
@@ -17864,7 +17933,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="263" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="2" t="s">
         <v>1204</v>
       </c>
@@ -17899,7 +17968,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="264" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="2" t="s">
         <v>1204</v>
       </c>
@@ -17934,7 +18003,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="265" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="2" t="s">
         <v>1203</v>
       </c>
@@ -17969,7 +18038,7 @@
         <v>2632</v>
       </c>
     </row>
-    <row r="266" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" s="2" t="s">
         <v>1204</v>
       </c>
@@ -18004,7 +18073,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="267" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" s="2" t="s">
         <v>1203</v>
       </c>
@@ -18039,7 +18108,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="268" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="2" t="s">
         <v>1204</v>
       </c>
@@ -18074,7 +18143,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="269" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B269" s="2" t="s">
         <v>1204</v>
       </c>
@@ -18109,7 +18178,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="270" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B270" s="2" t="s">
         <v>1204</v>
       </c>
@@ -18144,7 +18213,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="271" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" s="2" t="s">
         <v>1204</v>
       </c>
@@ -18179,7 +18248,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="272" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B272" s="2" t="s">
         <v>1205</v>
       </c>
@@ -18214,7 +18283,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="273" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B273" s="2" t="s">
         <v>1204</v>
       </c>
@@ -18249,7 +18318,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="274" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B274" s="2" t="s">
         <v>1205</v>
       </c>
@@ -18284,7 +18353,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="275" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B275" s="2" t="s">
         <v>1204</v>
       </c>
@@ -18319,7 +18388,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="276" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" s="2" t="s">
         <v>1205</v>
       </c>
@@ -18354,7 +18423,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="277" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="2" t="s">
         <v>1204</v>
       </c>
@@ -18389,7 +18458,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="278" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" s="2" t="s">
         <v>1203</v>
       </c>
@@ -18424,7 +18493,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="279" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" s="2" t="s">
         <v>1203</v>
       </c>
@@ -18459,7 +18528,7 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="280" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="2" t="s">
         <v>1203</v>
       </c>
@@ -18494,7 +18563,7 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="281" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="2" t="s">
         <v>1205</v>
       </c>
@@ -18529,7 +18598,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="282" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B282" s="2" t="s">
         <v>1203</v>
       </c>
@@ -18564,7 +18633,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="283" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B283" s="2" t="s">
         <v>1204</v>
       </c>
@@ -18599,7 +18668,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="284" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B284" s="2" t="s">
         <v>1203</v>
       </c>
@@ -18634,7 +18703,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="285" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="2" t="s">
         <v>1204</v>
       </c>
@@ -18669,7 +18738,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="286" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="2" t="s">
         <v>1203</v>
       </c>
@@ -18704,7 +18773,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="287" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" s="2" t="s">
         <v>1204</v>
       </c>
@@ -18739,7 +18808,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="288" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" s="2" t="s">
         <v>1203</v>
       </c>
@@ -18774,7 +18843,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="289" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="2" t="s">
         <v>1203</v>
       </c>
@@ -18809,7 +18878,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="290" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B290" s="2" t="s">
         <v>1203</v>
       </c>
@@ -18844,7 +18913,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="291" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="2" t="s">
         <v>1203</v>
       </c>
@@ -18879,7 +18948,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="292" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B292" s="2" t="s">
         <v>1203</v>
       </c>
@@ -18914,7 +18983,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="293" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" s="2" t="s">
         <v>1203</v>
       </c>
@@ -18949,7 +19018,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="294" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B294" s="2" t="s">
         <v>1204</v>
       </c>
@@ -18984,7 +19053,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="295" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B295" s="2" t="s">
         <v>1204</v>
       </c>
@@ -19019,7 +19088,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="296" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B296" s="2" t="s">
         <v>1203</v>
       </c>
@@ -19054,7 +19123,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="297" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B297" s="2" t="s">
         <v>1203</v>
       </c>
@@ -19089,7 +19158,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="298" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B298" s="2" t="s">
         <v>1203</v>
       </c>
@@ -19124,7 +19193,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="299" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B299" s="2" t="s">
         <v>1203</v>
       </c>
@@ -19159,7 +19228,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="300" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B300" s="2" t="s">
         <v>1205</v>
       </c>
@@ -19194,7 +19263,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="301" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B301" s="2" t="s">
         <v>1203</v>
       </c>
@@ -19229,7 +19298,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="302" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B302" s="2" t="s">
         <v>1204</v>
       </c>
@@ -19264,7 +19333,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="303" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B303" s="2" t="s">
         <v>1205</v>
       </c>
@@ -19299,7 +19368,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="304" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B304" s="2" t="s">
         <v>1203</v>
       </c>
@@ -19334,7 +19403,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="305" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" s="2" t="s">
         <v>1203</v>
       </c>
@@ -19369,7 +19438,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="306" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B306" s="2" t="s">
         <v>1203</v>
       </c>
@@ -19404,7 +19473,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="307" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B307" s="2" t="s">
         <v>1203</v>
       </c>
@@ -19439,7 +19508,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="308" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B308" s="2" t="s">
         <v>1204</v>
       </c>
@@ -19474,7 +19543,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="309" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B309" s="2" t="s">
         <v>1203</v>
       </c>
@@ -19509,7 +19578,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="310" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B310" s="2" t="s">
         <v>1204</v>
       </c>
@@ -19544,7 +19613,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="311" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B311" s="2" t="s">
         <v>1204</v>
       </c>
@@ -19579,7 +19648,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="312" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B312" s="2" t="s">
         <v>1204</v>
       </c>
@@ -19614,7 +19683,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="313" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B313" s="2" t="s">
         <v>1205</v>
       </c>
@@ -19649,7 +19718,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="314" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B314" s="2" t="s">
         <v>1204</v>
       </c>
@@ -19684,7 +19753,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="315" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B315" s="2" t="s">
         <v>1204</v>
       </c>
@@ -19719,7 +19788,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="316" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B316" s="2" t="s">
         <v>1203</v>
       </c>
@@ -19754,7 +19823,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="317" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B317" s="2" t="s">
         <v>1204</v>
       </c>
@@ -19789,7 +19858,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="318" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B318" s="2" t="s">
         <v>1203</v>
       </c>
@@ -19824,7 +19893,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="319" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B319" s="2" t="s">
         <v>1203</v>
       </c>
@@ -19859,7 +19928,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="320" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B320" s="2" t="s">
         <v>1203</v>
       </c>
@@ -19894,7 +19963,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="321" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B321" s="2" t="s">
         <v>1204</v>
       </c>
@@ -19929,7 +19998,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="322" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B322" s="2" t="s">
         <v>1203</v>
       </c>
@@ -19964,7 +20033,7 @@
         <v>2638</v>
       </c>
     </row>
-    <row r="323" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B323" s="2" t="s">
         <v>1204</v>
       </c>
@@ -19999,7 +20068,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="324" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B324" s="2" t="s">
         <v>1204</v>
       </c>
@@ -20034,7 +20103,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="325" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B325" s="2" t="s">
         <v>1204</v>
       </c>
@@ -20069,7 +20138,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="326" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B326" s="2" t="s">
         <v>1203</v>
       </c>
@@ -20104,7 +20173,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="327" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B327" s="2" t="s">
         <v>1204</v>
       </c>
@@ -20139,7 +20208,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="328" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B328" s="2" t="s">
         <v>1203</v>
       </c>
@@ -20174,7 +20243,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="329" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B329" s="2" t="s">
         <v>1204</v>
       </c>
@@ -20209,7 +20278,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="330" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B330" s="2" t="s">
         <v>1203</v>
       </c>
@@ -20244,7 +20313,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="331" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B331" s="2" t="s">
         <v>1204</v>
       </c>
@@ -20279,7 +20348,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="332" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B332" s="2" t="s">
         <v>1204</v>
       </c>
@@ -20314,7 +20383,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="333" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B333" s="2" t="s">
         <v>1204</v>
       </c>
@@ -20349,7 +20418,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="334" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B334" s="2" t="s">
         <v>1204</v>
       </c>
@@ -20384,7 +20453,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="335" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B335" s="2" t="s">
         <v>1204</v>
       </c>
@@ -20419,7 +20488,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="336" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B336" s="2" t="s">
         <v>1203</v>
       </c>
@@ -20454,7 +20523,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="337" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B337" s="2" t="s">
         <v>1204</v>
       </c>
@@ -20489,7 +20558,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="338" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B338" s="2" t="s">
         <v>1204</v>
       </c>
@@ -20524,7 +20593,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="339" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B339" s="2" t="s">
         <v>1204</v>
       </c>
@@ -20559,7 +20628,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="340" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B340" s="2" t="s">
         <v>1204</v>
       </c>
@@ -20594,7 +20663,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="341" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B341" s="2" t="s">
         <v>1204</v>
       </c>
@@ -20629,7 +20698,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="342" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B342" s="2" t="s">
         <v>1203</v>
       </c>
@@ -20664,7 +20733,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="343" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B343" s="2" t="s">
         <v>1203</v>
       </c>
@@ -20699,7 +20768,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="344" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B344" s="2" t="s">
         <v>1204</v>
       </c>
@@ -20734,7 +20803,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="345" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B345" s="2" t="s">
         <v>1204</v>
       </c>
@@ -20769,7 +20838,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="346" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B346" s="2" t="s">
         <v>1204</v>
       </c>
@@ -20804,7 +20873,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="347" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B347" s="2" t="s">
         <v>1203</v>
       </c>
@@ -20839,7 +20908,7 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="348" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B348" s="2" t="s">
         <v>1204</v>
       </c>
@@ -20874,7 +20943,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="349" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B349" s="2" t="s">
         <v>1203</v>
       </c>
@@ -20909,7 +20978,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="350" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B350" s="2" t="s">
         <v>1204</v>
       </c>
@@ -20944,7 +21013,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="351" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B351" s="2" t="s">
         <v>1204</v>
       </c>
@@ -20979,7 +21048,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="352" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B352" s="2" t="s">
         <v>1204</v>
       </c>
@@ -21014,7 +21083,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="353" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B353" s="2" t="s">
         <v>1204</v>
       </c>
@@ -21049,7 +21118,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="354" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B354" s="2" t="s">
         <v>1204</v>
       </c>
@@ -21084,7 +21153,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="355" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B355" s="2" t="s">
         <v>1203</v>
       </c>
@@ -21119,7 +21188,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="356" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B356" s="2" t="s">
         <v>1204</v>
       </c>
@@ -21154,7 +21223,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="357" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B357" s="2" t="s">
         <v>1203</v>
       </c>
@@ -21189,7 +21258,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="358" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B358" s="2" t="s">
         <v>1204</v>
       </c>
@@ -21224,7 +21293,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="359" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B359" s="2" t="s">
         <v>1203</v>
       </c>
@@ -21259,7 +21328,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="360" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B360" s="2" t="s">
         <v>1204</v>
       </c>
@@ -21294,7 +21363,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="361" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B361" s="2" t="s">
         <v>1204</v>
       </c>
@@ -21329,7 +21398,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="362" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B362" s="2" t="s">
         <v>1203</v>
       </c>
@@ -21364,7 +21433,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="363" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B363" s="2" t="s">
         <v>1204</v>
       </c>
@@ -21399,7 +21468,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="364" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B364" s="2" t="s">
         <v>1204</v>
       </c>
@@ -21434,7 +21503,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="365" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B365" s="2" t="s">
         <v>1204</v>
       </c>
@@ -21469,7 +21538,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="366" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B366" s="2" t="s">
         <v>1203</v>
       </c>
@@ -21504,29 +21573,29 @@
         <v>769</v>
       </c>
     </row>
-    <row r="367" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B367" s="6" t="s">
+    <row r="367" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B367" s="4" t="s">
         <v>1205</v>
       </c>
-      <c r="C367" s="6" t="s">
+      <c r="C367" s="4" t="s">
         <v>762</v>
       </c>
-      <c r="D367" s="6" t="s">
+      <c r="D367" s="4" t="s">
         <v>1964</v>
       </c>
-      <c r="E367" s="6" t="s">
+      <c r="E367" s="4" t="s">
         <v>2289</v>
       </c>
       <c r="F367" s="3">
         <v>45734</v>
       </c>
-      <c r="G367" s="6" t="s">
+      <c r="G367" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="H367" s="6" t="s">
+      <c r="H367" s="4" t="s">
         <v>1636</v>
       </c>
-      <c r="I367" s="6" t="s">
+      <c r="I367" s="4" t="s">
         <v>1195</v>
       </c>
       <c r="J367" s="4" t="s">
@@ -21539,7 +21608,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="368" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B368" s="2" t="s">
         <v>1203</v>
       </c>
@@ -21574,7 +21643,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="369" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B369" s="2" t="s">
         <v>1204</v>
       </c>
@@ -21609,7 +21678,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="370" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B370" s="2" t="s">
         <v>1203</v>
       </c>
@@ -21644,7 +21713,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="371" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B371" s="2" t="s">
         <v>1203</v>
       </c>
@@ -21679,7 +21748,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="372" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B372" s="2" t="s">
         <v>1203</v>
       </c>
@@ -21714,7 +21783,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="373" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B373" s="2" t="s">
         <v>1204</v>
       </c>
@@ -21749,7 +21818,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="374" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B374" s="2" t="s">
         <v>1203</v>
       </c>
@@ -21784,7 +21853,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="375" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B375" s="2" t="s">
         <v>1203</v>
       </c>
@@ -21819,7 +21888,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="376" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B376" s="2" t="s">
         <v>1204</v>
       </c>
@@ -21854,7 +21923,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="377" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B377" s="2" t="s">
         <v>1204</v>
       </c>
@@ -21889,29 +21958,29 @@
         <v>886</v>
       </c>
     </row>
-    <row r="378" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B378" s="6" t="s">
+    <row r="378" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B378" s="4" t="s">
         <v>1203</v>
       </c>
-      <c r="C378" s="6" t="s">
+      <c r="C378" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="D378" s="6" t="s">
+      <c r="D378" s="4" t="s">
         <v>1960</v>
       </c>
-      <c r="E378" s="6" t="s">
+      <c r="E378" s="4" t="s">
         <v>2285</v>
       </c>
       <c r="F378" s="3">
         <v>45734</v>
       </c>
-      <c r="G378" s="6" t="s">
+      <c r="G378" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="H378" s="6" t="s">
+      <c r="H378" s="4" t="s">
         <v>1539</v>
       </c>
-      <c r="I378" s="6" t="s">
+      <c r="I378" s="4" t="s">
         <v>1097</v>
       </c>
       <c r="J378" s="4" t="s">
@@ -21924,7 +21993,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="379" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B379" s="2" t="s">
         <v>1204</v>
       </c>
@@ -21959,7 +22028,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="380" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B380" s="2" t="s">
         <v>1203</v>
       </c>
@@ -21994,7 +22063,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="381" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B381" s="2" t="s">
         <v>1203</v>
       </c>
@@ -22029,7 +22098,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="382" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B382" s="2" t="s">
         <v>1204</v>
       </c>
@@ -22064,7 +22133,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="383" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B383" s="2" t="s">
         <v>1203</v>
       </c>
@@ -22099,7 +22168,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="384" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B384" s="2" t="s">
         <v>1204</v>
       </c>
@@ -22134,7 +22203,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="385" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B385" s="2" t="s">
         <v>1204</v>
       </c>
@@ -22169,7 +22238,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="386" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B386" s="2" t="s">
         <v>1204</v>
       </c>
@@ -22204,7 +22273,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="387" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B387" s="2" t="s">
         <v>1203</v>
       </c>
@@ -22239,7 +22308,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="388" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B388" s="2" t="s">
         <v>1204</v>
       </c>
@@ -22274,7 +22343,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="389" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B389" s="2" t="s">
         <v>1204</v>
       </c>
@@ -22309,7 +22378,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="390" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B390" s="2" t="s">
         <v>1204</v>
       </c>
@@ -22344,7 +22413,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="391" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B391" s="2" t="s">
         <v>1203</v>
       </c>
@@ -22379,7 +22448,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="392" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B392" s="2" t="s">
         <v>1204</v>
       </c>
@@ -22414,7 +22483,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="393" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B393" s="2" t="s">
         <v>1203</v>
       </c>
@@ -22449,7 +22518,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="394" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B394" s="2" t="s">
         <v>1203</v>
       </c>
@@ -22484,7 +22553,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="395" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B395" s="2" t="s">
         <v>1204</v>
       </c>
@@ -22519,7 +22588,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="396" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B396" s="2" t="s">
         <v>1204</v>
       </c>
@@ -22554,7 +22623,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="397" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B397" s="2" t="s">
         <v>1205</v>
       </c>
@@ -22589,7 +22658,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="398" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B398" s="2" t="s">
         <v>1204</v>
       </c>
@@ -22624,7 +22693,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="399" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B399" s="2" t="s">
         <v>1204</v>
       </c>
@@ -22659,7 +22728,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="400" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B400" s="2" t="s">
         <v>1203</v>
       </c>
@@ -22694,7 +22763,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="401" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B401" s="2" t="s">
         <v>1204</v>
       </c>
@@ -22729,7 +22798,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="402" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B402" s="2" t="s">
         <v>1204</v>
       </c>
@@ -22764,7 +22833,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="403" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B403" s="2" t="s">
         <v>1204</v>
       </c>
@@ -22799,7 +22868,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="404" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B404" s="2" t="s">
         <v>1204</v>
       </c>
@@ -22834,7 +22903,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="405" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B405" s="2" t="s">
         <v>1204</v>
       </c>
@@ -22869,7 +22938,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="406" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B406" s="2" t="s">
         <v>1204</v>
       </c>
@@ -22904,7 +22973,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="407" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B407" s="2" t="s">
         <v>1204</v>
       </c>
@@ -22939,7 +23008,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="408" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B408" s="2" t="s">
         <v>1203</v>
       </c>
@@ -22974,7 +23043,7 @@
         <v>2644</v>
       </c>
     </row>
-    <row r="409" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B409" s="2" t="s">
         <v>1203</v>
       </c>
@@ -23009,7 +23078,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="410" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B410" s="2" t="s">
         <v>1205</v>
       </c>
@@ -23044,7 +23113,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="411" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B411" s="2" t="s">
         <v>1203</v>
       </c>
@@ -23079,7 +23148,7 @@
         <v>2638</v>
       </c>
     </row>
-    <row r="412" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B412" s="2" t="s">
         <v>1204</v>
       </c>
@@ -23114,7 +23183,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="413" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B413" s="2" t="s">
         <v>1204</v>
       </c>
@@ -23149,7 +23218,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="414" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B414" s="2" t="s">
         <v>1203</v>
       </c>
@@ -23184,7 +23253,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="415" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B415" s="2" t="s">
         <v>1203</v>
       </c>
@@ -23219,7 +23288,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="416" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B416" s="2" t="s">
         <v>1204</v>
       </c>
@@ -23254,7 +23323,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="417" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B417" s="2" t="s">
         <v>1203</v>
       </c>
@@ -23289,7 +23358,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="418" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B418" s="2" t="s">
         <v>1204</v>
       </c>
@@ -23324,7 +23393,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="419" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B419" s="2" t="s">
         <v>1204</v>
       </c>
@@ -23359,7 +23428,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="420" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B420" s="2" t="s">
         <v>1203</v>
       </c>
@@ -23394,7 +23463,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="421" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B421" s="2" t="s">
         <v>1204</v>
       </c>
@@ -23429,7 +23498,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="422" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B422" s="2" t="s">
         <v>1204</v>
       </c>
@@ -23464,7 +23533,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="423" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B423" s="2" t="s">
         <v>1204</v>
       </c>
@@ -23499,7 +23568,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="424" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B424" s="2" t="s">
         <v>1203</v>
       </c>
@@ -23534,7 +23603,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="425" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B425" s="2" t="s">
         <v>1204</v>
       </c>
@@ -23569,7 +23638,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="426" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B426" s="2" t="s">
         <v>1204</v>
       </c>
@@ -23604,7 +23673,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="427" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B427" s="2" t="s">
         <v>1204</v>
       </c>
@@ -23639,7 +23708,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="428" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B428" s="2" t="s">
         <v>1204</v>
       </c>
@@ -23674,7 +23743,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="429" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B429" s="2" t="s">
         <v>1204</v>
       </c>
@@ -23709,7 +23778,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="430" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B430" s="2" t="s">
         <v>1203</v>
       </c>
@@ -23744,7 +23813,7 @@
         <v>2647</v>
       </c>
     </row>
-    <row r="431" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B431" s="2" t="s">
         <v>1205</v>
       </c>
@@ -23779,7 +23848,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="432" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B432" s="2" t="s">
         <v>1203</v>
       </c>
@@ -23814,7 +23883,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="433" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B433" s="2" t="s">
         <v>1203</v>
       </c>
@@ -23849,7 +23918,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="434" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B434" s="2" t="s">
         <v>1203</v>
       </c>
@@ -23884,7 +23953,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="435" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B435" s="2" t="s">
         <v>1203</v>
       </c>
@@ -23919,7 +23988,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="436" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B436" s="2" t="s">
         <v>1204</v>
       </c>
@@ -23954,7 +24023,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="437" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B437" s="2" t="s">
         <v>1204</v>
       </c>
@@ -23989,7 +24058,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="438" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B438" s="2" t="s">
         <v>1203</v>
       </c>
@@ -24024,7 +24093,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="439" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B439" s="2" t="s">
         <v>1204</v>
       </c>
@@ -24059,7 +24128,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="440" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B440" s="2" t="s">
         <v>1204</v>
       </c>
@@ -24094,7 +24163,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="441" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B441" s="2" t="s">
         <v>1204</v>
       </c>
@@ -24129,7 +24198,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="442" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B442" s="2" t="s">
         <v>1204</v>
       </c>
@@ -24164,7 +24233,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="443" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B443" s="2" t="s">
         <v>1204</v>
       </c>
@@ -24199,7 +24268,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="444" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B444" s="2" t="s">
         <v>1203</v>
       </c>
@@ -24234,7 +24303,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="445" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B445" s="2" t="s">
         <v>1203</v>
       </c>
@@ -24269,7 +24338,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="446" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B446" s="2" t="s">
         <v>1203</v>
       </c>
@@ -24304,7 +24373,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="447" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B447" s="2" t="s">
         <v>1203</v>
       </c>
@@ -24339,7 +24408,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="448" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B448" s="2" t="s">
         <v>1204</v>
       </c>
@@ -24374,7 +24443,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="449" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B449" s="2" t="s">
         <v>1204</v>
       </c>
@@ -24409,7 +24478,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="450" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B450" s="2" t="s">
         <v>1203</v>
       </c>
@@ -24444,7 +24513,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="451" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B451" s="2" t="s">
         <v>1203</v>
       </c>
@@ -24479,7 +24548,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="452" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B452" s="2" t="s">
         <v>1204</v>
       </c>
@@ -24514,7 +24583,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="453" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B453" s="2" t="s">
         <v>1203</v>
       </c>
@@ -24549,7 +24618,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="454" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B454" s="2" t="s">
         <v>1204</v>
       </c>
@@ -24584,7 +24653,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="455" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B455" s="2" t="s">
         <v>1203</v>
       </c>
@@ -24619,7 +24688,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="456" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B456" s="2" t="s">
         <v>1203</v>
       </c>
@@ -24654,7 +24723,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="457" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B457" s="2" t="s">
         <v>1203</v>
       </c>
@@ -24689,7 +24758,7 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="458" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B458" s="2" t="s">
         <v>1204</v>
       </c>
@@ -24724,7 +24793,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="459" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B459" s="2" t="s">
         <v>1203</v>
       </c>
@@ -24759,7 +24828,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="460" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B460" s="2" t="s">
         <v>1203</v>
       </c>
@@ -24794,7 +24863,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="461" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B461" s="2" t="s">
         <v>1204</v>
       </c>
@@ -24829,7 +24898,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="462" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B462" s="2" t="s">
         <v>1203</v>
       </c>
@@ -24864,7 +24933,7 @@
         <v>2619</v>
       </c>
     </row>
-    <row r="463" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B463" s="2" t="s">
         <v>1203</v>
       </c>
@@ -24899,7 +24968,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="464" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B464" s="2" t="s">
         <v>1205</v>
       </c>
@@ -24934,7 +25003,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="465" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B465" s="2" t="s">
         <v>1204</v>
       </c>
@@ -24969,7 +25038,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="466" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B466" s="2" t="s">
         <v>1204</v>
       </c>
@@ -25004,7 +25073,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="467" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B467" s="2" t="s">
         <v>1204</v>
       </c>
@@ -25039,7 +25108,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="468" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B468" s="2" t="s">
         <v>1204</v>
       </c>
@@ -25074,7 +25143,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="469" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B469" s="2" t="s">
         <v>1204</v>
       </c>
@@ -25109,7 +25178,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="470" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B470" s="2" t="s">
         <v>1204</v>
       </c>
@@ -25144,7 +25213,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="471" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B471" s="2" t="s">
         <v>1204</v>
       </c>
@@ -25179,7 +25248,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="472" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B472" s="2" t="s">
         <v>1203</v>
       </c>
@@ -25214,7 +25283,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="473" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B473" s="2" t="s">
         <v>1204</v>
       </c>
@@ -25249,7 +25318,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="474" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B474" s="2" t="s">
         <v>1204</v>
       </c>
@@ -25284,7 +25353,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="475" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B475" s="2" t="s">
         <v>1204</v>
       </c>
@@ -25319,7 +25388,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="476" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B476" s="2" t="s">
         <v>1204</v>
       </c>
@@ -25354,7 +25423,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="477" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B477" s="2" t="s">
         <v>1204</v>
       </c>
@@ -25389,7 +25458,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="478" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B478" s="2" t="s">
         <v>1204</v>
       </c>
@@ -25424,7 +25493,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="479" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B479" s="2" t="s">
         <v>1203</v>
       </c>
@@ -25459,7 +25528,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="480" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B480" s="2" t="s">
         <v>1205</v>
       </c>
@@ -25494,7 +25563,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="481" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B481" s="2" t="s">
         <v>1203</v>
       </c>
@@ -25529,7 +25598,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="482" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B482" s="2" t="s">
         <v>1205</v>
       </c>
@@ -25564,7 +25633,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="483" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B483" s="2" t="s">
         <v>1203</v>
       </c>
@@ -25599,7 +25668,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="484" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B484" s="2" t="s">
         <v>1203</v>
       </c>
@@ -25634,7 +25703,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="485" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B485" s="2" t="s">
         <v>1205</v>
       </c>
@@ -25669,7 +25738,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="486" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B486" s="2" t="s">
         <v>1203</v>
       </c>
@@ -25704,7 +25773,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="487" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B487" s="2" t="s">
         <v>1204</v>
       </c>
@@ -25739,7 +25808,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="488" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B488" s="2" t="s">
         <v>1203</v>
       </c>
@@ -25774,7 +25843,7 @@
         <v>2653</v>
       </c>
     </row>
-    <row r="489" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B489" s="2" t="s">
         <v>1204</v>
       </c>
@@ -25809,7 +25878,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="490" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B490" s="2" t="s">
         <v>1204</v>
       </c>
@@ -25844,7 +25913,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="491" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B491" s="2" t="s">
         <v>1203</v>
       </c>
@@ -25879,7 +25948,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="492" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B492" s="2" t="s">
         <v>1203</v>
       </c>
@@ -25914,7 +25983,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="493" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B493" s="2" t="s">
         <v>1203</v>
       </c>
@@ -25949,7 +26018,7 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="494" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B494" s="2" t="s">
         <v>1204</v>
       </c>
@@ -25984,7 +26053,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="495" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B495" s="2" t="s">
         <v>1203</v>
       </c>
@@ -26019,7 +26088,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="496" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B496" s="2" t="s">
         <v>1203</v>
       </c>
@@ -26054,7 +26123,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="497" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B497" s="2" t="s">
         <v>1203</v>
       </c>
@@ -26089,7 +26158,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="498" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B498" s="2" t="s">
         <v>1203</v>
       </c>
@@ -26124,7 +26193,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="499" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B499" s="2" t="s">
         <v>1204</v>
       </c>
@@ -26159,7 +26228,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="500" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B500" s="2" t="s">
         <v>1203</v>
       </c>
@@ -26194,7 +26263,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="501" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B501" s="2" t="s">
         <v>1203</v>
       </c>
@@ -26229,7 +26298,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="502" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B502" s="2" t="s">
         <v>1203</v>
       </c>
@@ -26264,7 +26333,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="503" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B503" s="2" t="s">
         <v>1205</v>
       </c>
@@ -26299,7 +26368,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="504" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B504" s="2" t="s">
         <v>1203</v>
       </c>
@@ -26334,7 +26403,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="505" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B505" s="2" t="s">
         <v>1203</v>
       </c>
@@ -26369,29 +26438,29 @@
         <v>823</v>
       </c>
     </row>
-    <row r="506" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B506" s="6" t="s">
+    <row r="506" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B506" s="4" t="s">
         <v>1203</v>
       </c>
-      <c r="C506" s="6" t="s">
+      <c r="C506" s="4" t="s">
         <v>761</v>
       </c>
-      <c r="D506" s="6" t="s">
+      <c r="D506" s="4" t="s">
         <v>1963</v>
       </c>
-      <c r="E506" s="6" t="s">
+      <c r="E506" s="4" t="s">
         <v>2288</v>
       </c>
       <c r="F506" s="3">
         <v>45734</v>
       </c>
-      <c r="G506" s="6" t="s">
+      <c r="G506" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="H506" s="6" t="s">
+      <c r="H506" s="4" t="s">
         <v>1805</v>
       </c>
-      <c r="I506" s="6" t="s">
+      <c r="I506" s="4" t="s">
         <v>2130</v>
       </c>
       <c r="J506" s="4" t="s">
@@ -26404,7 +26473,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="507" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B507" s="2" t="s">
         <v>1203</v>
       </c>
@@ -26439,7 +26508,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="508" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B508" s="2" t="s">
         <v>1204</v>
       </c>
@@ -26474,7 +26543,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="509" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B509" s="2" t="s">
         <v>1204</v>
       </c>
@@ -26509,7 +26578,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="510" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B510" s="2" t="s">
         <v>1204</v>
       </c>
@@ -26544,7 +26613,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="511" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B511" s="2" t="s">
         <v>1203</v>
       </c>
@@ -26579,7 +26648,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="512" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B512" s="2" t="s">
         <v>1204</v>
       </c>
@@ -26614,7 +26683,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="513" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B513" s="2" t="s">
         <v>1203</v>
       </c>
@@ -26649,7 +26718,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="514" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B514" s="2" t="s">
         <v>1203</v>
       </c>
@@ -26684,7 +26753,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="515" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B515" s="2" t="s">
         <v>1204</v>
       </c>
@@ -26719,7 +26788,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="516" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B516" s="2" t="s">
         <v>1204</v>
       </c>
@@ -26754,7 +26823,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="517" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B517" s="2" t="s">
         <v>1203</v>
       </c>
@@ -26789,7 +26858,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="518" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B518" s="2" t="s">
         <v>1203</v>
       </c>
@@ -26824,7 +26893,7 @@
         <v>2659</v>
       </c>
     </row>
-    <row r="519" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B519" s="2" t="s">
         <v>1204</v>
       </c>
@@ -26859,7 +26928,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="520" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B520" s="2" t="s">
         <v>1203</v>
       </c>
@@ -26894,7 +26963,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="521" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B521" s="2" t="s">
         <v>1205</v>
       </c>
@@ -26929,7 +26998,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="522" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B522" s="2" t="s">
         <v>1203</v>
       </c>
@@ -26964,7 +27033,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="523" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B523" s="2" t="s">
         <v>1205</v>
       </c>
@@ -26999,7 +27068,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="524" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B524" s="2" t="s">
         <v>1204</v>
       </c>
@@ -27034,7 +27103,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="525" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B525" s="2" t="s">
         <v>1203</v>
       </c>
@@ -27069,7 +27138,7 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="526" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B526" s="2" t="s">
         <v>1204</v>
       </c>
@@ -27104,7 +27173,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="527" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B527" s="2" t="s">
         <v>1204</v>
       </c>
@@ -27139,7 +27208,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="528" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B528" s="2" t="s">
         <v>1204</v>
       </c>
@@ -27174,7 +27243,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="529" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B529" s="2" t="s">
         <v>1203</v>
       </c>
@@ -27209,7 +27278,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="530" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B530" s="2" t="s">
         <v>1204</v>
       </c>
@@ -27244,7 +27313,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="531" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B531" s="2" t="s">
         <v>1204</v>
       </c>
@@ -27279,7 +27348,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="532" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B532" s="2" t="s">
         <v>1203</v>
       </c>
@@ -27314,29 +27383,29 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="533" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B533" s="6" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C533" s="6" t="s">
+    <row r="533" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B533" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C533" s="4" t="s">
         <v>759</v>
       </c>
-      <c r="D533" s="6" t="s">
+      <c r="D533" s="4" t="s">
         <v>1961</v>
       </c>
-      <c r="E533" s="6" t="s">
+      <c r="E533" s="4" t="s">
         <v>2286</v>
       </c>
       <c r="F533" s="3">
         <v>45734</v>
       </c>
-      <c r="G533" s="6" t="s">
+      <c r="G533" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="H533" s="6" t="s">
+      <c r="H533" s="4" t="s">
         <v>1496</v>
       </c>
-      <c r="I533" s="6" t="s">
+      <c r="I533" s="4" t="s">
         <v>1054</v>
       </c>
       <c r="J533" s="4" t="s">
@@ -27349,7 +27418,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="534" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B534" s="2" t="s">
         <v>1204</v>
       </c>
@@ -27384,7 +27453,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="535" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B535" s="2" t="s">
         <v>1203</v>
       </c>
@@ -27419,7 +27488,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="536" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B536" s="2" t="s">
         <v>1203</v>
       </c>
@@ -27454,7 +27523,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="537" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B537" s="2" t="s">
         <v>1203</v>
       </c>
@@ -27489,7 +27558,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="538" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B538" s="2" t="s">
         <v>1204</v>
       </c>
@@ -27524,7 +27593,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="539" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B539" s="2" t="s">
         <v>1203</v>
       </c>
@@ -27559,7 +27628,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="540" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B540" s="2" t="s">
         <v>1204</v>
       </c>
@@ -27594,7 +27663,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="541" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B541" s="2" t="s">
         <v>1204</v>
       </c>
@@ -27629,7 +27698,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="542" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B542" s="2" t="s">
         <v>1203</v>
       </c>
@@ -27664,7 +27733,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="543" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B543" s="2" t="s">
         <v>1203</v>
       </c>
@@ -27699,7 +27768,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="544" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B544" s="2" t="s">
         <v>1203</v>
       </c>
@@ -27734,7 +27803,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="545" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B545" s="2" t="s">
         <v>1203</v>
       </c>
@@ -27769,7 +27838,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="546" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B546" s="2" t="s">
         <v>1204</v>
       </c>
@@ -27804,7 +27873,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="547" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B547" s="2" t="s">
         <v>1203</v>
       </c>
@@ -27839,7 +27908,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="548" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B548" s="2" t="s">
         <v>1204</v>
       </c>
@@ -27874,7 +27943,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="549" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B549" s="2" t="s">
         <v>1203</v>
       </c>
@@ -27909,7 +27978,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="550" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B550" s="2" t="s">
         <v>1203</v>
       </c>
@@ -27944,7 +28013,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="551" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B551" s="2" t="s">
         <v>1204</v>
       </c>
@@ -27979,7 +28048,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="552" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B552" s="2" t="s">
         <v>1203</v>
       </c>
@@ -28014,7 +28083,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="553" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B553" s="2" t="s">
         <v>1204</v>
       </c>
@@ -28049,7 +28118,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="554" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B554" s="2" t="s">
         <v>1203</v>
       </c>
@@ -28084,7 +28153,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="555" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B555" s="2" t="s">
         <v>1203</v>
       </c>
@@ -28119,7 +28188,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="556" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B556" s="2" t="s">
         <v>1205</v>
       </c>
@@ -28154,7 +28223,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="557" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B557" s="2" t="s">
         <v>1203</v>
       </c>
@@ -28189,7 +28258,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="558" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B558" s="2" t="s">
         <v>1203</v>
       </c>
@@ -28224,7 +28293,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="559" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B559" s="2" t="s">
         <v>1203</v>
       </c>
@@ -28259,7 +28328,7 @@
         <v>2462</v>
       </c>
     </row>
-    <row r="560" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B560" s="2" t="s">
         <v>1203</v>
       </c>
@@ -28294,7 +28363,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="561" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B561" s="2" t="s">
         <v>1203</v>
       </c>
@@ -28329,7 +28398,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="562" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B562" s="2" t="s">
         <v>1203</v>
       </c>
@@ -28364,7 +28433,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="563" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B563" s="2" t="s">
         <v>1205</v>
       </c>
@@ -28399,7 +28468,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="564" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B564" s="2" t="s">
         <v>1204</v>
       </c>
@@ -28434,7 +28503,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="565" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B565" s="2" t="s">
         <v>1203</v>
       </c>
@@ -28469,7 +28538,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="566" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B566" s="2" t="s">
         <v>1204</v>
       </c>
@@ -28504,7 +28573,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="567" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B567" s="2" t="s">
         <v>1204</v>
       </c>
@@ -28539,7 +28608,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="568" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B568" s="2" t="s">
         <v>1204</v>
       </c>
@@ -28574,7 +28643,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="569" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B569" s="2" t="s">
         <v>1204</v>
       </c>
@@ -28609,7 +28678,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="570" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B570" s="2" t="s">
         <v>1204</v>
       </c>
@@ -28644,7 +28713,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="571" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B571" s="2" t="s">
         <v>1203</v>
       </c>
@@ -28679,7 +28748,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="572" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B572" s="2" t="s">
         <v>1204</v>
       </c>
@@ -28714,7 +28783,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="573" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B573" s="2" t="s">
         <v>1204</v>
       </c>
@@ -28749,7 +28818,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="574" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B574" s="2" t="s">
         <v>1204</v>
       </c>
@@ -28784,7 +28853,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="575" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B575" s="2" t="s">
         <v>1204</v>
       </c>
@@ -28819,7 +28888,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="576" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B576" s="2" t="s">
         <v>1203</v>
       </c>
@@ -28854,7 +28923,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="577" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B577" s="2" t="s">
         <v>1204</v>
       </c>
@@ -28889,7 +28958,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="578" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B578" s="2" t="s">
         <v>1203</v>
       </c>
@@ -28924,7 +28993,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="579" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B579" s="2" t="s">
         <v>1203</v>
       </c>
@@ -28959,7 +29028,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="580" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B580" s="2" t="s">
         <v>1204</v>
       </c>
@@ -28994,7 +29063,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="581" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B581" s="2" t="s">
         <v>1204</v>
       </c>
@@ -29029,7 +29098,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="582" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B582" s="2" t="s">
         <v>1203</v>
       </c>
@@ -29064,7 +29133,7 @@
         <v>2647</v>
       </c>
     </row>
-    <row r="583" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B583" s="2" t="s">
         <v>1203</v>
       </c>
@@ -29099,7 +29168,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="584" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B584" s="2" t="s">
         <v>1203</v>
       </c>
@@ -29134,7 +29203,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="585" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B585" s="2" t="s">
         <v>1204</v>
       </c>
@@ -29169,7 +29238,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="586" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B586" s="2" t="s">
         <v>1203</v>
       </c>
@@ -29204,7 +29273,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="587" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B587" s="2" t="s">
         <v>1203</v>
       </c>
@@ -29239,7 +29308,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="588" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B588" s="2" t="s">
         <v>1203</v>
       </c>
@@ -29274,7 +29343,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="589" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B589" s="2" t="s">
         <v>1203</v>
       </c>
@@ -29309,7 +29378,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="590" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B590" s="2" t="s">
         <v>1204</v>
       </c>
@@ -29344,7 +29413,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="591" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B591" s="2" t="s">
         <v>1203</v>
       </c>
@@ -29379,7 +29448,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="592" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B592" s="2" t="s">
         <v>1204</v>
       </c>
@@ -29414,7 +29483,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="593" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B593" s="2" t="s">
         <v>1203</v>
       </c>
@@ -29449,7 +29518,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="594" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B594" s="2" t="s">
         <v>1204</v>
       </c>
@@ -29484,7 +29553,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="595" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B595" s="2" t="s">
         <v>1204</v>
       </c>
@@ -29519,7 +29588,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="596" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B596" s="2" t="s">
         <v>1204</v>
       </c>
@@ -29554,7 +29623,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="597" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B597" s="2" t="s">
         <v>1204</v>
       </c>
@@ -29589,7 +29658,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="598" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B598" s="2" t="s">
         <v>1204</v>
       </c>
@@ -29624,7 +29693,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="599" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B599" s="2" t="s">
         <v>1203</v>
       </c>
@@ -29659,7 +29728,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="600" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B600" s="2" t="s">
         <v>1203</v>
       </c>
@@ -29694,7 +29763,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="601" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B601" s="2" t="s">
         <v>1203</v>
       </c>
@@ -29729,7 +29798,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="602" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B602" s="2" t="s">
         <v>1203</v>
       </c>
@@ -29764,7 +29833,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="603" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B603" s="2" t="s">
         <v>1203</v>
       </c>
@@ -29799,7 +29868,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="604" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B604" s="2" t="s">
         <v>1203</v>
       </c>
@@ -29834,7 +29903,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="605" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B605" s="2" t="s">
         <v>1203</v>
       </c>
@@ -29869,7 +29938,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="606" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B606" s="2" t="s">
         <v>1203</v>
       </c>
@@ -29904,7 +29973,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="607" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B607" s="2" t="s">
         <v>1203</v>
       </c>
@@ -29939,7 +30008,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="608" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B608" s="2" t="s">
         <v>1203</v>
       </c>
@@ -29974,7 +30043,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="609" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B609" s="2" t="s">
         <v>1205</v>
       </c>
@@ -30009,7 +30078,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="610" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B610" s="2" t="s">
         <v>1203</v>
       </c>
@@ -30044,7 +30113,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="611" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B611" s="2" t="s">
         <v>1203</v>
       </c>
@@ -30079,7 +30148,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="612" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B612" s="2" t="s">
         <v>1204</v>
       </c>
@@ -30114,7 +30183,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="613" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B613" s="2" t="s">
         <v>1203</v>
       </c>
@@ -30149,7 +30218,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="614" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B614" s="2" t="s">
         <v>1204</v>
       </c>
@@ -30184,7 +30253,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="615" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B615" s="2" t="s">
         <v>1204</v>
       </c>
@@ -30219,7 +30288,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="616" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B616" s="2" t="s">
         <v>1203</v>
       </c>
@@ -30254,7 +30323,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="617" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B617" s="2" t="s">
         <v>1204</v>
       </c>
@@ -30289,7 +30358,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="618" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B618" s="2" t="s">
         <v>1203</v>
       </c>
@@ -30324,7 +30393,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="619" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B619" s="2" t="s">
         <v>1204</v>
       </c>
@@ -30359,7 +30428,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="620" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B620" s="2" t="s">
         <v>1203</v>
       </c>
@@ -30394,7 +30463,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="621" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B621" s="2" t="s">
         <v>1203</v>
       </c>
@@ -30429,7 +30498,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="622" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B622" s="2" t="s">
         <v>1205</v>
       </c>
@@ -30464,7 +30533,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="623" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B623" s="2" t="s">
         <v>1203</v>
       </c>
@@ -30499,7 +30568,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="624" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B624" s="2" t="s">
         <v>1203</v>
       </c>
@@ -30534,7 +30603,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="625" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B625" s="2" t="s">
         <v>1204</v>
       </c>
@@ -30569,7 +30638,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="626" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B626" s="2" t="s">
         <v>1203</v>
       </c>
@@ -30604,7 +30673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B627" s="2" t="s">
         <v>1204</v>
       </c>
@@ -30639,7 +30708,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="628" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B628" s="2" t="s">
         <v>1203</v>
       </c>
@@ -30674,7 +30743,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="629" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B629" s="2" t="s">
         <v>1204</v>
       </c>
@@ -30709,7 +30778,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="630" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B630" s="2" t="s">
         <v>1204</v>
       </c>
@@ -30744,7 +30813,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="631" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B631" s="2" t="s">
         <v>1203</v>
       </c>
@@ -30779,7 +30848,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="632" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B632" s="2" t="s">
         <v>1204</v>
       </c>
@@ -30814,7 +30883,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="633" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B633" s="2" t="s">
         <v>1204</v>
       </c>
@@ -30849,7 +30918,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="634" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B634" s="2" t="s">
         <v>1204</v>
       </c>
@@ -30884,7 +30953,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="635" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B635" s="2" t="s">
         <v>1204</v>
       </c>
@@ -30919,7 +30988,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="636" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B636" s="2" t="s">
         <v>1203</v>
       </c>
@@ -30954,7 +31023,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="637" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B637" s="2" t="s">
         <v>1205</v>
       </c>
@@ -30989,7 +31058,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="638" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B638" s="2" t="s">
         <v>1204</v>
       </c>
@@ -31024,7 +31093,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="639" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B639" s="2" t="s">
         <v>1204</v>
       </c>
@@ -31059,7 +31128,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="640" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B640" s="2" t="s">
         <v>1204</v>
       </c>
@@ -31094,7 +31163,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="641" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B641" s="2" t="s">
         <v>1204</v>
       </c>
@@ -31129,7 +31198,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="642" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B642" s="2" t="s">
         <v>1204</v>
       </c>
@@ -31164,7 +31233,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="643" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B643" s="2" t="s">
         <v>1203</v>
       </c>
@@ -31199,7 +31268,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="644" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B644" s="2" t="s">
         <v>1204</v>
       </c>
@@ -31234,7 +31303,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="645" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B645" s="2" t="s">
         <v>1203</v>
       </c>
@@ -31269,7 +31338,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="646" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B646" s="2" t="s">
         <v>1203</v>
       </c>
@@ -31304,7 +31373,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="647" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B647" s="2" t="s">
         <v>1203</v>
       </c>
@@ -31339,7 +31408,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="648" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B648" s="2" t="s">
         <v>1204</v>
       </c>
@@ -31374,7 +31443,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="649" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B649" s="2" t="s">
         <v>1204</v>
       </c>
@@ -31409,7 +31478,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="650" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B650" s="2" t="s">
         <v>1204</v>
       </c>
@@ -31444,7 +31513,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="651" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B651" s="2" t="s">
         <v>1203</v>
       </c>
@@ -31479,7 +31548,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="652" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B652" s="2" t="s">
         <v>1204</v>
       </c>
@@ -31514,7 +31583,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="653" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B653" s="2" t="s">
         <v>1203</v>
       </c>
@@ -31549,7 +31618,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="654" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B654" s="2" t="s">
         <v>1203</v>
       </c>
@@ -31584,7 +31653,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="655" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B655" s="2" t="s">
         <v>1204</v>
       </c>
@@ -31619,7 +31688,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="656" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B656" s="2" t="s">
         <v>1204</v>
       </c>
@@ -31654,7 +31723,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="657" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B657" s="2" t="s">
         <v>1203</v>
       </c>
@@ -31689,7 +31758,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="658" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B658" s="2" t="s">
         <v>1203</v>
       </c>
@@ -31724,7 +31793,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="659" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B659" s="2" t="s">
         <v>1204</v>
       </c>
@@ -31759,7 +31828,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="660" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B660" s="2" t="s">
         <v>1204</v>
       </c>
@@ -31794,7 +31863,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="661" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B661" s="2" t="s">
         <v>1203</v>
       </c>
@@ -31829,7 +31898,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="662" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B662" s="2" t="s">
         <v>1204</v>
       </c>
@@ -31864,7 +31933,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="663" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B663" s="2" t="s">
         <v>1204</v>
       </c>
@@ -31899,7 +31968,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="664" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B664" s="2" t="s">
         <v>1203</v>
       </c>
@@ -31934,7 +32003,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="665" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B665" s="2" t="s">
         <v>1203</v>
       </c>
@@ -31969,7 +32038,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="666" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B666" s="2" t="s">
         <v>1204</v>
       </c>
@@ -32004,7 +32073,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="667" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B667" s="2" t="s">
         <v>1203</v>
       </c>
@@ -32039,7 +32108,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="668" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B668" s="2" t="s">
         <v>1203</v>
       </c>
@@ -32074,7 +32143,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="669" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B669" s="2" t="s">
         <v>1204</v>
       </c>
@@ -32109,7 +32178,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="670" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B670" s="2" t="s">
         <v>1204</v>
       </c>
@@ -32144,7 +32213,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="671" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B671" s="2" t="s">
         <v>1203</v>
       </c>
@@ -32179,7 +32248,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="672" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B672" s="2" t="s">
         <v>1203</v>
       </c>
@@ -32214,7 +32283,7 @@
         <v>2619</v>
       </c>
     </row>
-    <row r="673" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B673" s="2" t="s">
         <v>1203</v>
       </c>
@@ -32249,7 +32318,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="674" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B674" s="2" t="s">
         <v>1204</v>
       </c>
@@ -32282,7 +32351,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="675" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B675" s="2" t="s">
         <v>1203</v>
       </c>
@@ -32317,7 +32386,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="676" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B676" s="2" t="s">
         <v>1205</v>
       </c>
@@ -32352,7 +32421,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="677" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B677" s="2" t="s">
         <v>1204</v>
       </c>
@@ -32387,7 +32456,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="678" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B678" s="2" t="s">
         <v>1204</v>
       </c>
@@ -32422,7 +32491,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="679" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B679" s="2" t="s">
         <v>1203</v>
       </c>
@@ -32457,7 +32526,7 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="680" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B680" s="2" t="s">
         <v>1203</v>
       </c>
@@ -32492,7 +32561,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="681" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B681" s="2" t="s">
         <v>1203</v>
       </c>
@@ -32527,7 +32596,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="682" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B682" s="2" t="s">
         <v>1203</v>
       </c>
@@ -32562,7 +32631,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="683" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B683" s="2" t="s">
         <v>1203</v>
       </c>
@@ -32597,7 +32666,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="684" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B684" s="2" t="s">
         <v>1205</v>
       </c>
@@ -32632,7 +32701,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="685" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B685" s="2" t="s">
         <v>1204</v>
       </c>
@@ -32667,7 +32736,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="686" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B686" s="2" t="s">
         <v>1204</v>
       </c>
@@ -32702,7 +32771,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="687" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B687" s="2" t="s">
         <v>1203</v>
       </c>
@@ -32737,7 +32806,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="688" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B688" s="2" t="s">
         <v>1203</v>
       </c>
@@ -32772,7 +32841,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="689" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B689" s="2" t="s">
         <v>1203</v>
       </c>
@@ -32807,7 +32876,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="690" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B690" s="2" t="s">
         <v>1204</v>
       </c>
@@ -32842,7 +32911,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="691" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B691" s="2" t="s">
         <v>1203</v>
       </c>
@@ -32877,7 +32946,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="692" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B692" s="2" t="s">
         <v>1203</v>
       </c>
@@ -32912,7 +32981,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="693" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B693" s="2" t="s">
         <v>1203</v>
       </c>
@@ -32947,7 +33016,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="694" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B694" s="2" t="s">
         <v>1204</v>
       </c>
@@ -32982,7 +33051,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="695" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B695" s="2" t="s">
         <v>1203</v>
       </c>
@@ -33017,7 +33086,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="696" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B696" s="2" t="s">
         <v>1204</v>
       </c>
@@ -33052,7 +33121,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="697" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B697" s="2" t="s">
         <v>1205</v>
       </c>
@@ -33087,7 +33156,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="698" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B698" s="2" t="s">
         <v>1203</v>
       </c>
@@ -33122,7 +33191,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="699" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B699" s="2" t="s">
         <v>1203</v>
       </c>
@@ -33157,7 +33226,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="700" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B700" s="2" t="s">
         <v>1203</v>
       </c>
@@ -33192,7 +33261,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="701" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B701" s="2" t="s">
         <v>1204</v>
       </c>
@@ -33227,7 +33296,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="702" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B702" s="2" t="s">
         <v>1203</v>
       </c>
@@ -33262,7 +33331,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="703" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B703" s="2" t="s">
         <v>1204</v>
       </c>
@@ -33297,7 +33366,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="704" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B704" s="2" t="s">
         <v>1204</v>
       </c>
@@ -33332,7 +33401,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="705" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B705" s="2" t="s">
         <v>1203</v>
       </c>
@@ -33367,7 +33436,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="706" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B706" s="2" t="s">
         <v>1204</v>
       </c>
@@ -33402,7 +33471,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="707" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B707" s="2" t="s">
         <v>1204</v>
       </c>
@@ -33437,7 +33506,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="708" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B708" s="2" t="s">
         <v>1203</v>
       </c>
@@ -33472,7 +33541,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="709" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B709" s="2" t="s">
         <v>1204</v>
       </c>
@@ -33507,7 +33576,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="710" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B710" s="2" t="s">
         <v>1204</v>
       </c>
@@ -33542,7 +33611,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="711" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B711" s="2" t="s">
         <v>1203</v>
       </c>
@@ -33577,7 +33646,7 @@
         <v>2662</v>
       </c>
     </row>
-    <row r="712" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B712" s="2" t="s">
         <v>1204</v>
       </c>
@@ -33612,7 +33681,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="713" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B713" s="2" t="s">
         <v>1204</v>
       </c>
@@ -33647,7 +33716,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="714" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B714" s="2" t="s">
         <v>1205</v>
       </c>
@@ -33682,7 +33751,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="715" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B715" s="2" t="s">
         <v>1203</v>
       </c>
@@ -33717,7 +33786,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="716" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B716" s="2" t="s">
         <v>1204</v>
       </c>
@@ -33752,7 +33821,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="717" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B717" s="2" t="s">
         <v>1203</v>
       </c>
@@ -33787,7 +33856,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="718" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B718" s="2" t="s">
         <v>1203</v>
       </c>
@@ -33822,7 +33891,7 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="719" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B719" s="2" t="s">
         <v>1203</v>
       </c>
@@ -33857,7 +33926,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="720" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B720" s="2" t="s">
         <v>1203</v>
       </c>
@@ -33892,7 +33961,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="721" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B721" s="2" t="s">
         <v>1203</v>
       </c>
@@ -33927,7 +33996,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="722" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B722" s="2" t="s">
         <v>1204</v>
       </c>
@@ -33962,7 +34031,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="723" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B723" s="2" t="s">
         <v>1203</v>
       </c>
@@ -33997,7 +34066,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="724" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B724" s="2" t="s">
         <v>1204</v>
       </c>
@@ -34032,7 +34101,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="725" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B725" s="2" t="s">
         <v>1204</v>
       </c>
@@ -34067,7 +34136,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="726" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B726" s="2" t="s">
         <v>1203</v>
       </c>
@@ -34102,7 +34171,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="727" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B727" s="2" t="s">
         <v>1204</v>
       </c>
@@ -34137,7 +34206,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="728" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B728" s="2" t="s">
         <v>1203</v>
       </c>
@@ -34172,7 +34241,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="729" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B729" s="2" t="s">
         <v>1204</v>
       </c>
@@ -34207,7 +34276,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="730" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B730" s="2" t="s">
         <v>1204</v>
       </c>
@@ -34242,7 +34311,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="731" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B731" s="2" t="s">
         <v>1204</v>
       </c>
@@ -34277,7 +34346,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="732" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B732" s="2" t="s">
         <v>1204</v>
       </c>
@@ -34312,7 +34381,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="733" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B733" s="2" t="s">
         <v>1204</v>
       </c>
@@ -34347,7 +34416,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="734" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B734" s="2" t="s">
         <v>1203</v>
       </c>
@@ -34382,7 +34451,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="735" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B735" s="2" t="s">
         <v>1203</v>
       </c>
@@ -34417,7 +34486,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="736" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B736" s="2" t="s">
         <v>1204</v>
       </c>
@@ -34452,7 +34521,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="737" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B737" s="2" t="s">
         <v>1204</v>
       </c>
@@ -34487,7 +34556,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="738" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B738" s="2" t="s">
         <v>1204</v>
       </c>
@@ -34522,7 +34591,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="739" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B739" s="2" t="s">
         <v>1204</v>
       </c>
@@ -34557,7 +34626,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="740" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B740" s="2" t="s">
         <v>1204</v>
       </c>
@@ -34592,7 +34661,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="741" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B741" s="2" t="s">
         <v>1203</v>
       </c>
@@ -34627,7 +34696,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="742" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B742" s="2" t="s">
         <v>1203</v>
       </c>
@@ -34662,7 +34731,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="743" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B743" s="2" t="s">
         <v>1203</v>
       </c>
@@ -34697,7 +34766,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="744" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B744" s="2" t="s">
         <v>1203</v>
       </c>
@@ -34732,7 +34801,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="745" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B745" s="2" t="s">
         <v>1203</v>
       </c>
@@ -34767,7 +34836,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="746" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B746" s="2" t="s">
         <v>1203</v>
       </c>
@@ -34802,7 +34871,7 @@
         <v>2571</v>
       </c>
     </row>
-    <row r="747" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B747" s="2" t="s">
         <v>1203</v>
       </c>
@@ -34837,7 +34906,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="748" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B748" s="2" t="s">
         <v>1204</v>
       </c>
@@ -34872,7 +34941,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="749" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B749" s="2" t="s">
         <v>1204</v>
       </c>
@@ -34907,7 +34976,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="750" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B750" s="2" t="s">
         <v>1204</v>
       </c>
@@ -34942,7 +35011,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="751" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B751" s="2" t="s">
         <v>1204</v>
       </c>
@@ -34977,7 +35046,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="752" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B752" s="2" t="s">
         <v>1204</v>
       </c>
@@ -35012,7 +35081,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="753" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B753" s="2" t="s">
         <v>1204</v>
       </c>
@@ -35047,7 +35116,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="754" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B754" s="2" t="s">
         <v>1203</v>
       </c>
@@ -35082,7 +35151,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="755" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B755" s="2" t="s">
         <v>1204</v>
       </c>
@@ -35117,7 +35186,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="756" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B756" s="2" t="s">
         <v>1204</v>
       </c>
@@ -35152,7 +35221,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="757" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B757" s="2" t="s">
         <v>1204</v>
       </c>
@@ -35187,7 +35256,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="758" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B758" s="2" t="s">
         <v>1203</v>
       </c>
@@ -35222,7 +35291,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="759" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B759" s="2" t="s">
         <v>1203</v>
       </c>
@@ -35257,7 +35326,7 @@
         <v>2638</v>
       </c>
     </row>
-    <row r="760" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B760" s="2" t="s">
         <v>1204</v>
       </c>
@@ -35292,7 +35361,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="761" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B761" s="2" t="s">
         <v>1203</v>
       </c>
@@ -35327,7 +35396,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="762" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B762" s="2" t="s">
         <v>1204</v>
       </c>
@@ -35362,7 +35431,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="763" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B763" s="2" t="s">
         <v>1204</v>
       </c>
@@ -35397,7 +35466,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="764" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B764" s="2" t="s">
         <v>1203</v>
       </c>
@@ -35432,7 +35501,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="765" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B765" s="2" t="s">
         <v>1203</v>
       </c>
@@ -35473,4 +35542,872 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB2076F-DB0E-4379-8659-BE2167D2CF07}">
+  <dimension ref="B2:L25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="24.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
+    <col min="5" max="5" width="28.44140625" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" customWidth="1"/>
+    <col min="9" max="9" width="23.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" customWidth="1"/>
+    <col min="11" max="11" width="25.88671875" customWidth="1"/>
+    <col min="12" max="12" width="25.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="60" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>2552</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>2551</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>2467</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>2290</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>2383</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>2553</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>2554</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="60" x14ac:dyDescent="0.3">
+      <c r="B3" s="12" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>1622</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F3" s="13">
+        <v>45734</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>1626</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>1185</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>1552</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="60" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1623</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F4" s="3">
+        <v>45734</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>1399</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>1552</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="60" x14ac:dyDescent="0.3">
+      <c r="B5" s="12" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>1733</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>2056</v>
+      </c>
+      <c r="F5" s="13">
+        <v>45734</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>1352</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>911</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>1552</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="60" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="F6" s="3">
+        <v>45734</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>1552</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="60" x14ac:dyDescent="0.3">
+      <c r="B7" s="12" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>1624</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F7" s="13">
+        <v>45734</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>1242</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>801</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>1552</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="60" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>1924</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>2249</v>
+      </c>
+      <c r="F8" s="3">
+        <v>45734</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>1626</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>1552</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="60" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>1852</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>2177</v>
+      </c>
+      <c r="F9" s="13">
+        <v>45734</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>1626</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>1185</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>1552</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="60" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>2044</v>
+      </c>
+      <c r="F10" s="3">
+        <v>45734</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>1399</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>1552</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="60" x14ac:dyDescent="0.3">
+      <c r="B11" s="12" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>680</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>1882</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>2207</v>
+      </c>
+      <c r="F11" s="13">
+        <v>45734</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>1399</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>958</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>1552</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="60" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>1936</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>2261</v>
+      </c>
+      <c r="F12" s="3">
+        <v>45734</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>1626</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>1552</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="60" x14ac:dyDescent="0.3">
+      <c r="B13" s="12" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>679</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>1881</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>2206</v>
+      </c>
+      <c r="F13" s="13">
+        <v>45734</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>1361</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>920</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>1552</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="60" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="F14" s="3">
+        <v>45734</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>1626</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>1552</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="60" x14ac:dyDescent="0.3">
+      <c r="B15" s="12" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>1756</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>2079</v>
+      </c>
+      <c r="F15" s="13">
+        <v>45734</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>1399</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>958</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>1552</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="60" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="F16" s="3">
+        <v>45734</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>1626</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>1552</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="60" x14ac:dyDescent="0.3">
+      <c r="B17" s="12" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>1443</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F17" s="13">
+        <v>45734</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>1242</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>801</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>1552</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="60" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F18" s="3">
+        <v>45734</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>1552</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="60" x14ac:dyDescent="0.3">
+      <c r="B19" s="12" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F19" s="13">
+        <v>45734</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>1352</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>911</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>1552</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="60" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="F20" s="3">
+        <v>45734</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>1552</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="60" x14ac:dyDescent="0.3">
+      <c r="B21" s="16" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F21" s="17">
+        <v>45734</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>1242</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>801</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="K21" s="18" t="s">
+        <v>1552</v>
+      </c>
+      <c r="L21" s="18" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="60" x14ac:dyDescent="0.3">
+      <c r="B22" s="12" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>1626</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F22" s="13">
+        <v>45734</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>1552</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>1110</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>2516</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>2344</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="60" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="F23" s="3">
+        <v>45734</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>1552</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>2516</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>2344</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="60" x14ac:dyDescent="0.3">
+      <c r="B24" s="12" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>911</v>
+      </c>
+      <c r="F24" s="13">
+        <v>45734</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>1552</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>1110</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>2516</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>2344</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="60" x14ac:dyDescent="0.3">
+      <c r="B25" s="19" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>920</v>
+      </c>
+      <c r="F25" s="20">
+        <v>45734</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>1552</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>1110</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>2516</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>2344</v>
+      </c>
+      <c r="L25" s="21" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/excel/Disney Affection Report_v2.xlsx
+++ b/excel/Disney Affection Report_v2.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ServiceAwardCalendar\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E450D5D-F491-4539-9CC4-B7784644773C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AB1374-5932-4F44-9A91-8EEF69D48C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9705" yWindow="-16320" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{98FB5A6A-DF5F-4FC8-82CF-B00F6488695F}"/>
+    <workbookView xWindow="3615" yWindow="-12825" windowWidth="17280" windowHeight="8880" xr2:uid="{98FB5A6A-DF5F-4FC8-82CF-B00F6488695F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7875" uniqueCount="2666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7634" uniqueCount="2666">
   <si>
     <t>10019519</t>
   </si>
@@ -8096,7 +8095,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8121,14 +8120,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -8136,32 +8129,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -8184,45 +8157,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8442,13 +8376,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0B50F347-CF84-4C26-8AC0-2B61F7C74D2C}" name="Table1" displayName="Table1" ref="B2:L765" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
-  <autoFilter ref="B2:L765" xr:uid="{0B50F347-CF84-4C26-8AC0-2B61F7C74D2C}">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="MARCOS.LUCENA@DISNEY.COM"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B2:L765" xr:uid="{0B50F347-CF84-4C26-8AC0-2B61F7C74D2C}"/>
   <tableColumns count="11">
     <tableColumn id="11" xr3:uid="{AADC0B11-85CB-4C16-B7AA-DD37C18B49AD}" name="Company Code" dataDxfId="10"/>
     <tableColumn id="3" xr3:uid="{6718FCB7-6462-4807-81ED-458562EC5731}" name="Employee ID" dataDxfId="9" dataCellStyle="Normal 2"/>
@@ -8785,8 +8713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C5C6E2-558D-4BE7-9D2C-4BA49F857161}">
   <dimension ref="B2:L765"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:L716"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8868,7 +8796,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>1204</v>
       </c>
@@ -8903,7 +8831,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>1203</v>
       </c>
@@ -8938,7 +8866,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>1205</v>
       </c>
@@ -8973,7 +8901,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>1204</v>
       </c>
@@ -9008,7 +8936,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>1204</v>
       </c>
@@ -9043,7 +8971,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>1203</v>
       </c>
@@ -9078,7 +9006,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>1203</v>
       </c>
@@ -9113,7 +9041,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>1204</v>
       </c>
@@ -9148,7 +9076,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>1204</v>
       </c>
@@ -9183,7 +9111,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>1204</v>
       </c>
@@ -9218,7 +9146,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>1203</v>
       </c>
@@ -9253,7 +9181,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>1204</v>
       </c>
@@ -9288,7 +9216,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>1203</v>
       </c>
@@ -9323,7 +9251,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>1203</v>
       </c>
@@ -9358,7 +9286,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>1203</v>
       </c>
@@ -9393,7 +9321,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>1203</v>
       </c>
@@ -9428,7 +9356,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>1204</v>
       </c>
@@ -9463,7 +9391,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>1203</v>
       </c>
@@ -9498,7 +9426,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>1204</v>
       </c>
@@ -9533,7 +9461,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>1203</v>
       </c>
@@ -9568,7 +9496,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>1203</v>
       </c>
@@ -9603,7 +9531,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>1204</v>
       </c>
@@ -9638,7 +9566,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>1205</v>
       </c>
@@ -9673,7 +9601,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>1204</v>
       </c>
@@ -9708,7 +9636,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>1205</v>
       </c>
@@ -9743,7 +9671,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>1204</v>
       </c>
@@ -9778,7 +9706,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>1204</v>
       </c>
@@ -9813,7 +9741,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>1203</v>
       </c>
@@ -9848,7 +9776,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>1204</v>
       </c>
@@ -9883,7 +9811,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>1203</v>
       </c>
@@ -9918,7 +9846,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>1204</v>
       </c>
@@ -9953,7 +9881,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>1203</v>
       </c>
@@ -9988,7 +9916,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>1203</v>
       </c>
@@ -10023,7 +9951,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>1203</v>
       </c>
@@ -10058,7 +9986,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>1205</v>
       </c>
@@ -10093,7 +10021,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>1203</v>
       </c>
@@ -10128,7 +10056,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="40" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>1203</v>
       </c>
@@ -10163,7 +10091,7 @@
         <v>2571</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>1205</v>
       </c>
@@ -10198,7 +10126,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>1203</v>
       </c>
@@ -10233,7 +10161,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="43" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>1203</v>
       </c>
@@ -10268,7 +10196,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>1203</v>
       </c>
@@ -10303,7 +10231,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>1203</v>
       </c>
@@ -10338,7 +10266,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>1203</v>
       </c>
@@ -10373,7 +10301,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="47" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>1205</v>
       </c>
@@ -10408,7 +10336,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="48" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>1203</v>
       </c>
@@ -10443,7 +10371,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="49" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>1203</v>
       </c>
@@ -10478,7 +10406,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="50" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>1203</v>
       </c>
@@ -10513,7 +10441,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="51" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>1203</v>
       </c>
@@ -10548,7 +10476,7 @@
         <v>2583</v>
       </c>
     </row>
-    <row r="52" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>1205</v>
       </c>
@@ -10583,7 +10511,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="53" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>1203</v>
       </c>
@@ -10618,7 +10546,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="54" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>1204</v>
       </c>
@@ -10653,7 +10581,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="55" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
         <v>1203</v>
       </c>
@@ -10688,7 +10616,7 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="56" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>1203</v>
       </c>
@@ -10723,7 +10651,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="57" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>1204</v>
       </c>
@@ -10758,7 +10686,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="58" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>1204</v>
       </c>
@@ -10793,7 +10721,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="59" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>1203</v>
       </c>
@@ -10828,7 +10756,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="60" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
         <v>1204</v>
       </c>
@@ -10863,7 +10791,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="61" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>1204</v>
       </c>
@@ -10898,7 +10826,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="62" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>1204</v>
       </c>
@@ -10933,7 +10861,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="63" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
         <v>1204</v>
       </c>
@@ -10968,7 +10896,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="64" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
         <v>1203</v>
       </c>
@@ -11003,7 +10931,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="65" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
         <v>1203</v>
       </c>
@@ -11038,7 +10966,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="66" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>1203</v>
       </c>
@@ -11073,7 +11001,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="67" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
         <v>1203</v>
       </c>
@@ -11108,7 +11036,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="68" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
         <v>1204</v>
       </c>
@@ -11143,7 +11071,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="69" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
         <v>1204</v>
       </c>
@@ -11178,7 +11106,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="70" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
         <v>1204</v>
       </c>
@@ -11213,7 +11141,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="71" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
         <v>1203</v>
       </c>
@@ -11248,7 +11176,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="72" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
         <v>1203</v>
       </c>
@@ -11283,7 +11211,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="73" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
         <v>1204</v>
       </c>
@@ -11318,7 +11246,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="74" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
         <v>1203</v>
       </c>
@@ -11353,7 +11281,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="75" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
         <v>1204</v>
       </c>
@@ -11388,7 +11316,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="76" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
         <v>1203</v>
       </c>
@@ -11423,7 +11351,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="77" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
         <v>1203</v>
       </c>
@@ -11458,7 +11386,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="78" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
         <v>1203</v>
       </c>
@@ -11493,7 +11421,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="79" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
         <v>1203</v>
       </c>
@@ -11528,7 +11456,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="80" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
         <v>1205</v>
       </c>
@@ -11563,7 +11491,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="81" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="2" t="s">
         <v>1203</v>
       </c>
@@ -11598,7 +11526,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="82" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
         <v>1204</v>
       </c>
@@ -11633,7 +11561,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="83" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
         <v>1204</v>
       </c>
@@ -11668,7 +11596,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="84" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="2" t="s">
         <v>1204</v>
       </c>
@@ -11703,7 +11631,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="85" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="2" t="s">
         <v>1204</v>
       </c>
@@ -11738,7 +11666,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="86" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="2" t="s">
         <v>1203</v>
       </c>
@@ -11773,7 +11701,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="87" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
         <v>1204</v>
       </c>
@@ -11808,7 +11736,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="88" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
         <v>1203</v>
       </c>
@@ -11843,7 +11771,7 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="89" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="2" t="s">
         <v>1204</v>
       </c>
@@ -11878,7 +11806,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="90" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
         <v>1203</v>
       </c>
@@ -11913,7 +11841,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="91" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="2" t="s">
         <v>1203</v>
       </c>
@@ -11948,7 +11876,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="92" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="2" t="s">
         <v>1204</v>
       </c>
@@ -11983,7 +11911,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="93" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="2" t="s">
         <v>1203</v>
       </c>
@@ -12018,7 +11946,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="94" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="2" t="s">
         <v>1204</v>
       </c>
@@ -12053,7 +11981,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="95" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="2" t="s">
         <v>1203</v>
       </c>
@@ -12088,7 +12016,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="96" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="2" t="s">
         <v>1204</v>
       </c>
@@ -12123,7 +12051,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="97" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="2" t="s">
         <v>1203</v>
       </c>
@@ -12158,7 +12086,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="98" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="2" t="s">
         <v>1203</v>
       </c>
@@ -12193,7 +12121,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="99" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="2" t="s">
         <v>1204</v>
       </c>
@@ -12228,7 +12156,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="100" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="2" t="s">
         <v>1204</v>
       </c>
@@ -12263,7 +12191,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="101" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="2" t="s">
         <v>1204</v>
       </c>
@@ -12298,7 +12226,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="102" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="2" t="s">
         <v>1203</v>
       </c>
@@ -12333,7 +12261,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="103" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="2" t="s">
         <v>1203</v>
       </c>
@@ -12368,7 +12296,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="104" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="2" t="s">
         <v>1203</v>
       </c>
@@ -12403,7 +12331,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="105" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="2" t="s">
         <v>1203</v>
       </c>
@@ -12438,7 +12366,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="106" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="2" t="s">
         <v>1203</v>
       </c>
@@ -12473,7 +12401,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="107" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="2" t="s">
         <v>1203</v>
       </c>
@@ -12508,7 +12436,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="108" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="2" t="s">
         <v>1204</v>
       </c>
@@ -12543,7 +12471,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="109" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
         <v>1203</v>
       </c>
@@ -12578,7 +12506,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="110" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
         <v>1204</v>
       </c>
@@ -12613,7 +12541,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="111" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="2" t="s">
         <v>1204</v>
       </c>
@@ -12648,7 +12576,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="112" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>1204</v>
       </c>
@@ -12683,7 +12611,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="113" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="2" t="s">
         <v>1205</v>
       </c>
@@ -12718,7 +12646,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="114" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="2" t="s">
         <v>1203</v>
       </c>
@@ -12753,7 +12681,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="115" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="2" t="s">
         <v>1204</v>
       </c>
@@ -12788,7 +12716,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="116" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="2" t="s">
         <v>1204</v>
       </c>
@@ -12823,7 +12751,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="117" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="2" t="s">
         <v>1204</v>
       </c>
@@ -12858,7 +12786,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="118" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="2" t="s">
         <v>1203</v>
       </c>
@@ -12893,7 +12821,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="119" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="2" t="s">
         <v>1203</v>
       </c>
@@ -12928,7 +12856,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="120" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="2" t="s">
         <v>1204</v>
       </c>
@@ -12963,7 +12891,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="121" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="2" t="s">
         <v>1203</v>
       </c>
@@ -12998,7 +12926,7 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="122" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="2" t="s">
         <v>1204</v>
       </c>
@@ -13033,7 +12961,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="123" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="2" t="s">
         <v>1203</v>
       </c>
@@ -13068,7 +12996,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="124" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="2" t="s">
         <v>1203</v>
       </c>
@@ -13103,7 +13031,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="125" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="2" t="s">
         <v>1203</v>
       </c>
@@ -13138,7 +13066,7 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="126" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="2" t="s">
         <v>1203</v>
       </c>
@@ -13173,7 +13101,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="127" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="2" t="s">
         <v>1203</v>
       </c>
@@ -13208,7 +13136,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="128" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="2" t="s">
         <v>1204</v>
       </c>
@@ -13243,7 +13171,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="129" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="2" t="s">
         <v>1204</v>
       </c>
@@ -13278,7 +13206,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="130" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="2" t="s">
         <v>1204</v>
       </c>
@@ -13313,7 +13241,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="131" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="2" t="s">
         <v>1203</v>
       </c>
@@ -13348,7 +13276,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="132" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="2" t="s">
         <v>1203</v>
       </c>
@@ -13383,7 +13311,7 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="133" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="2" t="s">
         <v>1203</v>
       </c>
@@ -13418,7 +13346,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="134" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="2" t="s">
         <v>1204</v>
       </c>
@@ -13453,7 +13381,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="135" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="2" t="s">
         <v>1203</v>
       </c>
@@ -13488,7 +13416,7 @@
         <v>2604</v>
       </c>
     </row>
-    <row r="136" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="2" t="s">
         <v>1204</v>
       </c>
@@ -13523,7 +13451,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="137" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="2" t="s">
         <v>1204</v>
       </c>
@@ -13558,7 +13486,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="138" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="2" t="s">
         <v>1204</v>
       </c>
@@ -13593,7 +13521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="2" t="s">
         <v>1204</v>
       </c>
@@ -13628,7 +13556,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="140" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="2" t="s">
         <v>1203</v>
       </c>
@@ -13663,7 +13591,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="141" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="2" t="s">
         <v>1204</v>
       </c>
@@ -13698,7 +13626,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="142" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="2" t="s">
         <v>1204</v>
       </c>
@@ -13733,7 +13661,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="143" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="2" t="s">
         <v>1204</v>
       </c>
@@ -13768,7 +13696,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="144" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="2" t="s">
         <v>1203</v>
       </c>
@@ -13803,7 +13731,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="145" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="2" t="s">
         <v>1204</v>
       </c>
@@ -13838,7 +13766,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="146" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="2" t="s">
         <v>1203</v>
       </c>
@@ -13873,7 +13801,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="147" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="2" t="s">
         <v>1205</v>
       </c>
@@ -13908,7 +13836,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="148" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="2" t="s">
         <v>1203</v>
       </c>
@@ -13943,7 +13871,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="149" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="2" t="s">
         <v>1204</v>
       </c>
@@ -13978,7 +13906,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="150" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="2" t="s">
         <v>1204</v>
       </c>
@@ -14013,7 +13941,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="151" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="2" t="s">
         <v>1204</v>
       </c>
@@ -14048,7 +13976,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="152" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="2" t="s">
         <v>1204</v>
       </c>
@@ -14083,7 +14011,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="153" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="2" t="s">
         <v>1203</v>
       </c>
@@ -14118,7 +14046,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="154" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="2" t="s">
         <v>1204</v>
       </c>
@@ -14153,7 +14081,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="155" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="2" t="s">
         <v>1204</v>
       </c>
@@ -14188,7 +14116,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="156" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="2" t="s">
         <v>1203</v>
       </c>
@@ -14223,7 +14151,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="157" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="2" t="s">
         <v>1204</v>
       </c>
@@ -14258,7 +14186,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="158" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="2" t="s">
         <v>1204</v>
       </c>
@@ -14293,7 +14221,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="159" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="2" t="s">
         <v>1204</v>
       </c>
@@ -14328,7 +14256,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="160" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="2" t="s">
         <v>1204</v>
       </c>
@@ -14363,7 +14291,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="161" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="2" t="s">
         <v>1203</v>
       </c>
@@ -14398,7 +14326,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="162" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="2" t="s">
         <v>1203</v>
       </c>
@@ -14433,7 +14361,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="163" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="2" t="s">
         <v>1203</v>
       </c>
@@ -14468,7 +14396,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="164" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="2" t="s">
         <v>1203</v>
       </c>
@@ -14503,7 +14431,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="165" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="2" t="s">
         <v>1203</v>
       </c>
@@ -14538,7 +14466,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="166" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="2" t="s">
         <v>1203</v>
       </c>
@@ -14573,7 +14501,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="167" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="2" t="s">
         <v>1203</v>
       </c>
@@ -14608,7 +14536,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="168" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="2" t="s">
         <v>1204</v>
       </c>
@@ -14643,7 +14571,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="169" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="2" t="s">
         <v>1204</v>
       </c>
@@ -14678,7 +14606,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="170" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="2" t="s">
         <v>1204</v>
       </c>
@@ -14713,7 +14641,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="171" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="2" t="s">
         <v>1204</v>
       </c>
@@ -14748,7 +14676,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="172" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="2" t="s">
         <v>1204</v>
       </c>
@@ -14783,7 +14711,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="173" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="2" t="s">
         <v>1204</v>
       </c>
@@ -14818,7 +14746,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="174" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="2" t="s">
         <v>1204</v>
       </c>
@@ -14853,7 +14781,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="175" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="2" t="s">
         <v>1205</v>
       </c>
@@ -14888,7 +14816,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="176" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="2" t="s">
         <v>1205</v>
       </c>
@@ -14923,7 +14851,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="177" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="2" t="s">
         <v>1203</v>
       </c>
@@ -14958,7 +14886,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="178" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="2" t="s">
         <v>1203</v>
       </c>
@@ -14993,7 +14921,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="179" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="2" t="s">
         <v>1203</v>
       </c>
@@ -15028,7 +14956,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="180" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="2" t="s">
         <v>1203</v>
       </c>
@@ -15063,7 +14991,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="181" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="2" t="s">
         <v>1204</v>
       </c>
@@ -15098,7 +15026,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="182" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="2" t="s">
         <v>1204</v>
       </c>
@@ -15133,7 +15061,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="183" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="2" t="s">
         <v>1204</v>
       </c>
@@ -15168,7 +15096,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="184" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="2" t="s">
         <v>1204</v>
       </c>
@@ -15203,7 +15131,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="185" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="2" t="s">
         <v>1204</v>
       </c>
@@ -15238,7 +15166,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="186" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="2" t="s">
         <v>1204</v>
       </c>
@@ -15273,7 +15201,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="187" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="2" t="s">
         <v>1203</v>
       </c>
@@ -15308,7 +15236,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="188" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="2" t="s">
         <v>1204</v>
       </c>
@@ -15343,7 +15271,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="189" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="2" t="s">
         <v>1203</v>
       </c>
@@ -15378,7 +15306,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="190" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="2" t="s">
         <v>1203</v>
       </c>
@@ -15413,7 +15341,7 @@
         <v>2613</v>
       </c>
     </row>
-    <row r="191" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="2" t="s">
         <v>1203</v>
       </c>
@@ -15448,7 +15376,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="192" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="2" t="s">
         <v>1204</v>
       </c>
@@ -15483,7 +15411,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="193" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="2" t="s">
         <v>1203</v>
       </c>
@@ -15518,7 +15446,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="194" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="2" t="s">
         <v>1204</v>
       </c>
@@ -15553,7 +15481,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="195" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="2" t="s">
         <v>1203</v>
       </c>
@@ -15588,7 +15516,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="196" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="2" t="s">
         <v>1204</v>
       </c>
@@ -15623,7 +15551,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="197" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="2" t="s">
         <v>1204</v>
       </c>
@@ -15658,7 +15586,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="198" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="2" t="s">
         <v>1204</v>
       </c>
@@ -15693,7 +15621,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="199" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="2" t="s">
         <v>1204</v>
       </c>
@@ -15728,7 +15656,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="200" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="2" t="s">
         <v>1204</v>
       </c>
@@ -15763,7 +15691,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="201" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="2" t="s">
         <v>1203</v>
       </c>
@@ -15798,7 +15726,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="202" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="2" t="s">
         <v>1203</v>
       </c>
@@ -15833,7 +15761,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="203" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="2" t="s">
         <v>1203</v>
       </c>
@@ -15868,7 +15796,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="204" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="4" t="s">
         <v>1203</v>
       </c>
@@ -15903,7 +15831,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="205" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="2" t="s">
         <v>1204</v>
       </c>
@@ -15938,7 +15866,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="206" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="2" t="s">
         <v>1203</v>
       </c>
@@ -15973,7 +15901,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="207" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="2" t="s">
         <v>1204</v>
       </c>
@@ -16008,7 +15936,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="208" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="2" t="s">
         <v>1203</v>
       </c>
@@ -16043,7 +15971,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="209" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="2" t="s">
         <v>1203</v>
       </c>
@@ -16078,7 +16006,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="210" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="2" t="s">
         <v>1203</v>
       </c>
@@ -16113,7 +16041,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="211" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="2" t="s">
         <v>1204</v>
       </c>
@@ -16148,7 +16076,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="212" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="2" t="s">
         <v>1203</v>
       </c>
@@ -16183,7 +16111,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="213" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="2" t="s">
         <v>1204</v>
       </c>
@@ -16218,7 +16146,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="214" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="2" t="s">
         <v>1203</v>
       </c>
@@ -16253,7 +16181,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="215" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="2" t="s">
         <v>1204</v>
       </c>
@@ -16288,7 +16216,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="216" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="2" t="s">
         <v>1203</v>
       </c>
@@ -16323,7 +16251,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="217" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="2" t="s">
         <v>1204</v>
       </c>
@@ -16358,7 +16286,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="218" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="2" t="s">
         <v>1204</v>
       </c>
@@ -16393,7 +16321,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="219" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="2" t="s">
         <v>1204</v>
       </c>
@@ -16428,7 +16356,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="220" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="2" t="s">
         <v>1204</v>
       </c>
@@ -16463,7 +16391,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="221" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="2" t="s">
         <v>1203</v>
       </c>
@@ -16498,7 +16426,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="222" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="2" t="s">
         <v>1204</v>
       </c>
@@ -16533,7 +16461,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="223" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="2" t="s">
         <v>1204</v>
       </c>
@@ -16568,7 +16496,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="224" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="2" t="s">
         <v>1203</v>
       </c>
@@ -16603,7 +16531,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="225" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="2" t="s">
         <v>1204</v>
       </c>
@@ -16638,7 +16566,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="226" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="2" t="s">
         <v>1204</v>
       </c>
@@ -16673,7 +16601,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="227" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="2" t="s">
         <v>1204</v>
       </c>
@@ -16708,7 +16636,7 @@
         <v>2619</v>
       </c>
     </row>
-    <row r="228" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="2" t="s">
         <v>1204</v>
       </c>
@@ -16743,7 +16671,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="229" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="2" t="s">
         <v>1204</v>
       </c>
@@ -16778,7 +16706,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="230" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="2" t="s">
         <v>1203</v>
       </c>
@@ -16813,7 +16741,7 @@
         <v>2622</v>
       </c>
     </row>
-    <row r="231" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="2" t="s">
         <v>1204</v>
       </c>
@@ -16848,7 +16776,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="232" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="2" t="s">
         <v>1204</v>
       </c>
@@ -16883,7 +16811,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="233" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="2" t="s">
         <v>1204</v>
       </c>
@@ -16918,7 +16846,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="234" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="2" t="s">
         <v>1204</v>
       </c>
@@ -16953,7 +16881,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="235" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="2" t="s">
         <v>1204</v>
       </c>
@@ -16988,7 +16916,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="236" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="2" t="s">
         <v>1203</v>
       </c>
@@ -17023,7 +16951,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="237" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="2" t="s">
         <v>1203</v>
       </c>
@@ -17058,7 +16986,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="238" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="2" t="s">
         <v>1204</v>
       </c>
@@ -17093,7 +17021,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="239" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="2" t="s">
         <v>1203</v>
       </c>
@@ -17128,7 +17056,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="240" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="2" t="s">
         <v>1204</v>
       </c>
@@ -17163,7 +17091,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="241" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="2" t="s">
         <v>1204</v>
       </c>
@@ -17198,7 +17126,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="242" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="2" t="s">
         <v>1203</v>
       </c>
@@ -17233,7 +17161,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="243" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="2" t="s">
         <v>1205</v>
       </c>
@@ -17268,7 +17196,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="244" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="2" t="s">
         <v>1204</v>
       </c>
@@ -17303,7 +17231,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="245" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="2" t="s">
         <v>1204</v>
       </c>
@@ -17338,7 +17266,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="246" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="2" t="s">
         <v>1203</v>
       </c>
@@ -17373,7 +17301,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="247" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="2" t="s">
         <v>1204</v>
       </c>
@@ -17408,7 +17336,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="248" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="2" t="s">
         <v>1204</v>
       </c>
@@ -17443,7 +17371,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="249" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="2" t="s">
         <v>1203</v>
       </c>
@@ -17478,7 +17406,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="250" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="2" t="s">
         <v>1204</v>
       </c>
@@ -17513,7 +17441,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="251" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="2" t="s">
         <v>1204</v>
       </c>
@@ -17548,7 +17476,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="252" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="2" t="s">
         <v>1203</v>
       </c>
@@ -17583,7 +17511,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="253" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="2" t="s">
         <v>1203</v>
       </c>
@@ -17618,7 +17546,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="254" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="2" t="s">
         <v>1204</v>
       </c>
@@ -17653,7 +17581,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="255" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="2" t="s">
         <v>1203</v>
       </c>
@@ -17688,7 +17616,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="256" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="2" t="s">
         <v>1203</v>
       </c>
@@ -17723,7 +17651,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="257" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="2" t="s">
         <v>1203</v>
       </c>
@@ -17758,7 +17686,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="258" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="2" t="s">
         <v>1204</v>
       </c>
@@ -17793,7 +17721,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="259" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="2" t="s">
         <v>1204</v>
       </c>
@@ -17863,7 +17791,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="261" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="2" t="s">
         <v>1205</v>
       </c>
@@ -17898,7 +17826,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="262" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="2" t="s">
         <v>1204</v>
       </c>
@@ -17933,7 +17861,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="263" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="2" t="s">
         <v>1204</v>
       </c>
@@ -17968,7 +17896,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="264" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="2" t="s">
         <v>1204</v>
       </c>
@@ -18003,7 +17931,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="265" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="2" t="s">
         <v>1203</v>
       </c>
@@ -18038,7 +17966,7 @@
         <v>2632</v>
       </c>
     </row>
-    <row r="266" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" s="2" t="s">
         <v>1204</v>
       </c>
@@ -18073,7 +18001,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="267" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" s="2" t="s">
         <v>1203</v>
       </c>
@@ -18108,7 +18036,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="268" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="2" t="s">
         <v>1204</v>
       </c>
@@ -18143,7 +18071,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="269" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B269" s="2" t="s">
         <v>1204</v>
       </c>
@@ -18178,7 +18106,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="270" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B270" s="2" t="s">
         <v>1204</v>
       </c>
@@ -18213,7 +18141,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="271" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" s="2" t="s">
         <v>1204</v>
       </c>
@@ -18248,7 +18176,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="272" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B272" s="2" t="s">
         <v>1205</v>
       </c>
@@ -18283,7 +18211,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="273" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B273" s="2" t="s">
         <v>1204</v>
       </c>
@@ -18318,7 +18246,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="274" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B274" s="2" t="s">
         <v>1205</v>
       </c>
@@ -18353,7 +18281,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="275" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B275" s="2" t="s">
         <v>1204</v>
       </c>
@@ -18388,7 +18316,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="276" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" s="2" t="s">
         <v>1205</v>
       </c>
@@ -18423,7 +18351,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="277" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="2" t="s">
         <v>1204</v>
       </c>
@@ -18458,7 +18386,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="278" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" s="2" t="s">
         <v>1203</v>
       </c>
@@ -18493,7 +18421,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="279" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" s="2" t="s">
         <v>1203</v>
       </c>
@@ -18528,7 +18456,7 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="280" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="2" t="s">
         <v>1203</v>
       </c>
@@ -18563,7 +18491,7 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="281" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="2" t="s">
         <v>1205</v>
       </c>
@@ -18598,7 +18526,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="282" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B282" s="2" t="s">
         <v>1203</v>
       </c>
@@ -18633,7 +18561,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="283" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B283" s="2" t="s">
         <v>1204</v>
       </c>
@@ -18668,7 +18596,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="284" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B284" s="2" t="s">
         <v>1203</v>
       </c>
@@ -18703,7 +18631,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="285" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="2" t="s">
         <v>1204</v>
       </c>
@@ -18738,7 +18666,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="286" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="2" t="s">
         <v>1203</v>
       </c>
@@ -18773,7 +18701,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="287" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" s="2" t="s">
         <v>1204</v>
       </c>
@@ -18808,7 +18736,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="288" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" s="2" t="s">
         <v>1203</v>
       </c>
@@ -18843,7 +18771,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="289" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="2" t="s">
         <v>1203</v>
       </c>
@@ -18878,7 +18806,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="290" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B290" s="2" t="s">
         <v>1203</v>
       </c>
@@ -18913,7 +18841,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="291" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="2" t="s">
         <v>1203</v>
       </c>
@@ -18948,7 +18876,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="292" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B292" s="2" t="s">
         <v>1203</v>
       </c>
@@ -18983,7 +18911,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="293" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" s="2" t="s">
         <v>1203</v>
       </c>
@@ -19018,7 +18946,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="294" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B294" s="2" t="s">
         <v>1204</v>
       </c>
@@ -19053,7 +18981,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="295" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B295" s="2" t="s">
         <v>1204</v>
       </c>
@@ -19088,7 +19016,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="296" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B296" s="2" t="s">
         <v>1203</v>
       </c>
@@ -19123,7 +19051,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="297" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B297" s="2" t="s">
         <v>1203</v>
       </c>
@@ -19158,7 +19086,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="298" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B298" s="2" t="s">
         <v>1203</v>
       </c>
@@ -19193,7 +19121,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="299" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B299" s="2" t="s">
         <v>1203</v>
       </c>
@@ -19228,7 +19156,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="300" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B300" s="2" t="s">
         <v>1205</v>
       </c>
@@ -19263,7 +19191,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="301" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B301" s="2" t="s">
         <v>1203</v>
       </c>
@@ -19298,7 +19226,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="302" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B302" s="2" t="s">
         <v>1204</v>
       </c>
@@ -19333,7 +19261,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="303" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B303" s="2" t="s">
         <v>1205</v>
       </c>
@@ -19368,7 +19296,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="304" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B304" s="2" t="s">
         <v>1203</v>
       </c>
@@ -19403,7 +19331,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="305" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" s="2" t="s">
         <v>1203</v>
       </c>
@@ -19438,7 +19366,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="306" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B306" s="2" t="s">
         <v>1203</v>
       </c>
@@ -19473,7 +19401,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="307" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B307" s="2" t="s">
         <v>1203</v>
       </c>
@@ -19508,7 +19436,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="308" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B308" s="2" t="s">
         <v>1204</v>
       </c>
@@ -19543,7 +19471,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="309" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B309" s="2" t="s">
         <v>1203</v>
       </c>
@@ -19578,7 +19506,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="310" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B310" s="2" t="s">
         <v>1204</v>
       </c>
@@ -19613,7 +19541,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="311" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B311" s="2" t="s">
         <v>1204</v>
       </c>
@@ -19648,7 +19576,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="312" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B312" s="2" t="s">
         <v>1204</v>
       </c>
@@ -19683,7 +19611,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="313" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B313" s="2" t="s">
         <v>1205</v>
       </c>
@@ -19718,7 +19646,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="314" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B314" s="2" t="s">
         <v>1204</v>
       </c>
@@ -19753,7 +19681,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="315" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B315" s="2" t="s">
         <v>1204</v>
       </c>
@@ -19788,7 +19716,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="316" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B316" s="2" t="s">
         <v>1203</v>
       </c>
@@ -19823,7 +19751,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="317" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B317" s="2" t="s">
         <v>1204</v>
       </c>
@@ -19858,7 +19786,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="318" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B318" s="2" t="s">
         <v>1203</v>
       </c>
@@ -19893,7 +19821,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="319" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B319" s="2" t="s">
         <v>1203</v>
       </c>
@@ -19928,7 +19856,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="320" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B320" s="2" t="s">
         <v>1203</v>
       </c>
@@ -19963,7 +19891,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="321" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B321" s="2" t="s">
         <v>1204</v>
       </c>
@@ -19998,7 +19926,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="322" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B322" s="2" t="s">
         <v>1203</v>
       </c>
@@ -20033,7 +19961,7 @@
         <v>2638</v>
       </c>
     </row>
-    <row r="323" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B323" s="2" t="s">
         <v>1204</v>
       </c>
@@ -20068,7 +19996,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="324" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B324" s="2" t="s">
         <v>1204</v>
       </c>
@@ -20103,7 +20031,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="325" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B325" s="2" t="s">
         <v>1204</v>
       </c>
@@ -20138,7 +20066,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="326" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B326" s="2" t="s">
         <v>1203</v>
       </c>
@@ -20173,7 +20101,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="327" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B327" s="2" t="s">
         <v>1204</v>
       </c>
@@ -20208,7 +20136,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="328" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B328" s="2" t="s">
         <v>1203</v>
       </c>
@@ -20243,7 +20171,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="329" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B329" s="2" t="s">
         <v>1204</v>
       </c>
@@ -20278,7 +20206,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="330" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B330" s="2" t="s">
         <v>1203</v>
       </c>
@@ -20313,7 +20241,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="331" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B331" s="2" t="s">
         <v>1204</v>
       </c>
@@ -20348,7 +20276,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="332" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B332" s="2" t="s">
         <v>1204</v>
       </c>
@@ -20383,7 +20311,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="333" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B333" s="2" t="s">
         <v>1204</v>
       </c>
@@ -20418,7 +20346,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="334" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B334" s="2" t="s">
         <v>1204</v>
       </c>
@@ -20453,7 +20381,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="335" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B335" s="2" t="s">
         <v>1204</v>
       </c>
@@ -20488,7 +20416,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="336" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B336" s="2" t="s">
         <v>1203</v>
       </c>
@@ -20523,7 +20451,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="337" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B337" s="2" t="s">
         <v>1204</v>
       </c>
@@ -20558,7 +20486,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="338" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B338" s="2" t="s">
         <v>1204</v>
       </c>
@@ -20593,7 +20521,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="339" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B339" s="2" t="s">
         <v>1204</v>
       </c>
@@ -20628,7 +20556,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="340" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B340" s="2" t="s">
         <v>1204</v>
       </c>
@@ -20663,7 +20591,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="341" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B341" s="2" t="s">
         <v>1204</v>
       </c>
@@ -20698,7 +20626,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="342" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B342" s="2" t="s">
         <v>1203</v>
       </c>
@@ -20733,7 +20661,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="343" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B343" s="2" t="s">
         <v>1203</v>
       </c>
@@ -20768,7 +20696,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="344" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B344" s="2" t="s">
         <v>1204</v>
       </c>
@@ -20803,7 +20731,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="345" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B345" s="2" t="s">
         <v>1204</v>
       </c>
@@ -20838,7 +20766,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="346" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B346" s="2" t="s">
         <v>1204</v>
       </c>
@@ -20873,7 +20801,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="347" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B347" s="2" t="s">
         <v>1203</v>
       </c>
@@ -20908,7 +20836,7 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="348" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B348" s="2" t="s">
         <v>1204</v>
       </c>
@@ -20943,7 +20871,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="349" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B349" s="2" t="s">
         <v>1203</v>
       </c>
@@ -20978,7 +20906,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="350" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B350" s="2" t="s">
         <v>1204</v>
       </c>
@@ -21013,7 +20941,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="351" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B351" s="2" t="s">
         <v>1204</v>
       </c>
@@ -21048,7 +20976,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="352" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B352" s="2" t="s">
         <v>1204</v>
       </c>
@@ -21083,7 +21011,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="353" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B353" s="2" t="s">
         <v>1204</v>
       </c>
@@ -21118,7 +21046,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="354" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B354" s="2" t="s">
         <v>1204</v>
       </c>
@@ -21153,7 +21081,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="355" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B355" s="2" t="s">
         <v>1203</v>
       </c>
@@ -21188,7 +21116,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="356" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B356" s="2" t="s">
         <v>1204</v>
       </c>
@@ -21223,7 +21151,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="357" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B357" s="2" t="s">
         <v>1203</v>
       </c>
@@ -21258,7 +21186,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="358" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B358" s="2" t="s">
         <v>1204</v>
       </c>
@@ -21293,7 +21221,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="359" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B359" s="2" t="s">
         <v>1203</v>
       </c>
@@ -21328,7 +21256,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="360" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B360" s="2" t="s">
         <v>1204</v>
       </c>
@@ -21363,7 +21291,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="361" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B361" s="2" t="s">
         <v>1204</v>
       </c>
@@ -21398,7 +21326,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="362" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B362" s="2" t="s">
         <v>1203</v>
       </c>
@@ -21433,7 +21361,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="363" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B363" s="2" t="s">
         <v>1204</v>
       </c>
@@ -21468,7 +21396,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="364" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B364" s="2" t="s">
         <v>1204</v>
       </c>
@@ -21503,7 +21431,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="365" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B365" s="2" t="s">
         <v>1204</v>
       </c>
@@ -21538,7 +21466,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="366" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B366" s="2" t="s">
         <v>1203</v>
       </c>
@@ -21573,7 +21501,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="367" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B367" s="4" t="s">
         <v>1205</v>
       </c>
@@ -21608,7 +21536,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="368" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B368" s="2" t="s">
         <v>1203</v>
       </c>
@@ -21643,7 +21571,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="369" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B369" s="2" t="s">
         <v>1204</v>
       </c>
@@ -21678,7 +21606,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="370" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B370" s="2" t="s">
         <v>1203</v>
       </c>
@@ -21713,7 +21641,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="371" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B371" s="2" t="s">
         <v>1203</v>
       </c>
@@ -21748,7 +21676,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="372" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B372" s="2" t="s">
         <v>1203</v>
       </c>
@@ -21783,7 +21711,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="373" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B373" s="2" t="s">
         <v>1204</v>
       </c>
@@ -21818,7 +21746,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="374" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B374" s="2" t="s">
         <v>1203</v>
       </c>
@@ -21853,7 +21781,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="375" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B375" s="2" t="s">
         <v>1203</v>
       </c>
@@ -21888,7 +21816,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="376" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B376" s="2" t="s">
         <v>1204</v>
       </c>
@@ -21923,7 +21851,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="377" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B377" s="2" t="s">
         <v>1204</v>
       </c>
@@ -21958,7 +21886,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="378" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B378" s="4" t="s">
         <v>1203</v>
       </c>
@@ -21993,7 +21921,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="379" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B379" s="2" t="s">
         <v>1204</v>
       </c>
@@ -22028,7 +21956,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="380" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B380" s="2" t="s">
         <v>1203</v>
       </c>
@@ -22063,7 +21991,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="381" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B381" s="2" t="s">
         <v>1203</v>
       </c>
@@ -22098,7 +22026,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="382" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B382" s="2" t="s">
         <v>1204</v>
       </c>
@@ -22133,7 +22061,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="383" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B383" s="2" t="s">
         <v>1203</v>
       </c>
@@ -22168,7 +22096,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="384" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B384" s="2" t="s">
         <v>1204</v>
       </c>
@@ -22203,7 +22131,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="385" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B385" s="2" t="s">
         <v>1204</v>
       </c>
@@ -22238,7 +22166,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="386" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B386" s="2" t="s">
         <v>1204</v>
       </c>
@@ -22273,7 +22201,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="387" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B387" s="2" t="s">
         <v>1203</v>
       </c>
@@ -22308,7 +22236,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="388" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B388" s="2" t="s">
         <v>1204</v>
       </c>
@@ -22343,7 +22271,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="389" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B389" s="2" t="s">
         <v>1204</v>
       </c>
@@ -22378,7 +22306,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="390" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B390" s="2" t="s">
         <v>1204</v>
       </c>
@@ -22413,7 +22341,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="391" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B391" s="2" t="s">
         <v>1203</v>
       </c>
@@ -22448,7 +22376,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="392" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B392" s="2" t="s">
         <v>1204</v>
       </c>
@@ -22483,7 +22411,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="393" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B393" s="2" t="s">
         <v>1203</v>
       </c>
@@ -22518,7 +22446,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="394" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B394" s="2" t="s">
         <v>1203</v>
       </c>
@@ -22553,7 +22481,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="395" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B395" s="2" t="s">
         <v>1204</v>
       </c>
@@ -22588,7 +22516,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="396" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B396" s="2" t="s">
         <v>1204</v>
       </c>
@@ -22623,7 +22551,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="397" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B397" s="2" t="s">
         <v>1205</v>
       </c>
@@ -22658,7 +22586,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="398" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B398" s="2" t="s">
         <v>1204</v>
       </c>
@@ -22693,7 +22621,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="399" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B399" s="2" t="s">
         <v>1204</v>
       </c>
@@ -22728,7 +22656,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="400" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B400" s="2" t="s">
         <v>1203</v>
       </c>
@@ -22763,7 +22691,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="401" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B401" s="2" t="s">
         <v>1204</v>
       </c>
@@ -22798,7 +22726,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="402" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B402" s="2" t="s">
         <v>1204</v>
       </c>
@@ -22833,7 +22761,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="403" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B403" s="2" t="s">
         <v>1204</v>
       </c>
@@ -22868,7 +22796,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="404" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B404" s="2" t="s">
         <v>1204</v>
       </c>
@@ -22903,7 +22831,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="405" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B405" s="2" t="s">
         <v>1204</v>
       </c>
@@ -22938,7 +22866,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="406" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B406" s="2" t="s">
         <v>1204</v>
       </c>
@@ -22973,7 +22901,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="407" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B407" s="2" t="s">
         <v>1204</v>
       </c>
@@ -23008,7 +22936,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="408" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B408" s="2" t="s">
         <v>1203</v>
       </c>
@@ -23043,7 +22971,7 @@
         <v>2644</v>
       </c>
     </row>
-    <row r="409" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B409" s="2" t="s">
         <v>1203</v>
       </c>
@@ -23078,7 +23006,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="410" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B410" s="2" t="s">
         <v>1205</v>
       </c>
@@ -23113,7 +23041,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="411" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B411" s="2" t="s">
         <v>1203</v>
       </c>
@@ -23148,7 +23076,7 @@
         <v>2638</v>
       </c>
     </row>
-    <row r="412" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B412" s="2" t="s">
         <v>1204</v>
       </c>
@@ -23183,7 +23111,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="413" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B413" s="2" t="s">
         <v>1204</v>
       </c>
@@ -23218,7 +23146,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="414" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B414" s="2" t="s">
         <v>1203</v>
       </c>
@@ -23253,7 +23181,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="415" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B415" s="2" t="s">
         <v>1203</v>
       </c>
@@ -23288,7 +23216,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="416" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B416" s="2" t="s">
         <v>1204</v>
       </c>
@@ -23323,7 +23251,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="417" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B417" s="2" t="s">
         <v>1203</v>
       </c>
@@ -23358,7 +23286,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="418" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B418" s="2" t="s">
         <v>1204</v>
       </c>
@@ -23393,7 +23321,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="419" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B419" s="2" t="s">
         <v>1204</v>
       </c>
@@ -23428,7 +23356,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="420" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B420" s="2" t="s">
         <v>1203</v>
       </c>
@@ -23463,7 +23391,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="421" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B421" s="2" t="s">
         <v>1204</v>
       </c>
@@ -23498,7 +23426,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="422" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B422" s="2" t="s">
         <v>1204</v>
       </c>
@@ -23533,7 +23461,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="423" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B423" s="2" t="s">
         <v>1204</v>
       </c>
@@ -23568,7 +23496,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="424" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B424" s="2" t="s">
         <v>1203</v>
       </c>
@@ -23603,7 +23531,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="425" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B425" s="2" t="s">
         <v>1204</v>
       </c>
@@ -23638,7 +23566,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="426" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B426" s="2" t="s">
         <v>1204</v>
       </c>
@@ -23673,7 +23601,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="427" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B427" s="2" t="s">
         <v>1204</v>
       </c>
@@ -23708,7 +23636,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="428" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B428" s="2" t="s">
         <v>1204</v>
       </c>
@@ -23743,7 +23671,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="429" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B429" s="2" t="s">
         <v>1204</v>
       </c>
@@ -23778,7 +23706,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="430" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B430" s="2" t="s">
         <v>1203</v>
       </c>
@@ -23813,7 +23741,7 @@
         <v>2647</v>
       </c>
     </row>
-    <row r="431" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B431" s="2" t="s">
         <v>1205</v>
       </c>
@@ -23848,7 +23776,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="432" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B432" s="2" t="s">
         <v>1203</v>
       </c>
@@ -23883,7 +23811,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="433" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B433" s="2" t="s">
         <v>1203</v>
       </c>
@@ -23918,7 +23846,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="434" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B434" s="2" t="s">
         <v>1203</v>
       </c>
@@ -23953,7 +23881,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="435" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B435" s="2" t="s">
         <v>1203</v>
       </c>
@@ -23988,7 +23916,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="436" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B436" s="2" t="s">
         <v>1204</v>
       </c>
@@ -24023,7 +23951,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="437" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B437" s="2" t="s">
         <v>1204</v>
       </c>
@@ -24058,7 +23986,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="438" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B438" s="2" t="s">
         <v>1203</v>
       </c>
@@ -24093,7 +24021,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="439" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B439" s="2" t="s">
         <v>1204</v>
       </c>
@@ -24128,7 +24056,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="440" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B440" s="2" t="s">
         <v>1204</v>
       </c>
@@ -24163,7 +24091,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="441" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B441" s="2" t="s">
         <v>1204</v>
       </c>
@@ -24198,7 +24126,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="442" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B442" s="2" t="s">
         <v>1204</v>
       </c>
@@ -24233,7 +24161,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="443" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B443" s="2" t="s">
         <v>1204</v>
       </c>
@@ -24268,7 +24196,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="444" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B444" s="2" t="s">
         <v>1203</v>
       </c>
@@ -24303,7 +24231,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="445" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B445" s="2" t="s">
         <v>1203</v>
       </c>
@@ -24338,7 +24266,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="446" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B446" s="2" t="s">
         <v>1203</v>
       </c>
@@ -24373,7 +24301,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="447" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B447" s="2" t="s">
         <v>1203</v>
       </c>
@@ -24408,7 +24336,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="448" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B448" s="2" t="s">
         <v>1204</v>
       </c>
@@ -24443,7 +24371,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="449" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B449" s="2" t="s">
         <v>1204</v>
       </c>
@@ -24478,7 +24406,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="450" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B450" s="2" t="s">
         <v>1203</v>
       </c>
@@ -24513,7 +24441,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="451" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B451" s="2" t="s">
         <v>1203</v>
       </c>
@@ -24548,7 +24476,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="452" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B452" s="2" t="s">
         <v>1204</v>
       </c>
@@ -24583,7 +24511,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="453" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B453" s="2" t="s">
         <v>1203</v>
       </c>
@@ -24618,7 +24546,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="454" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B454" s="2" t="s">
         <v>1204</v>
       </c>
@@ -24653,7 +24581,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="455" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B455" s="2" t="s">
         <v>1203</v>
       </c>
@@ -24688,7 +24616,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="456" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B456" s="2" t="s">
         <v>1203</v>
       </c>
@@ -24723,7 +24651,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="457" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B457" s="2" t="s">
         <v>1203</v>
       </c>
@@ -24758,7 +24686,7 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="458" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B458" s="2" t="s">
         <v>1204</v>
       </c>
@@ -24793,7 +24721,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="459" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B459" s="2" t="s">
         <v>1203</v>
       </c>
@@ -24828,7 +24756,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="460" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B460" s="2" t="s">
         <v>1203</v>
       </c>
@@ -24863,7 +24791,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="461" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B461" s="2" t="s">
         <v>1204</v>
       </c>
@@ -24898,7 +24826,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="462" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B462" s="2" t="s">
         <v>1203</v>
       </c>
@@ -24933,7 +24861,7 @@
         <v>2619</v>
       </c>
     </row>
-    <row r="463" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B463" s="2" t="s">
         <v>1203</v>
       </c>
@@ -24968,7 +24896,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="464" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B464" s="2" t="s">
         <v>1205</v>
       </c>
@@ -25003,7 +24931,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="465" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B465" s="2" t="s">
         <v>1204</v>
       </c>
@@ -25038,7 +24966,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="466" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B466" s="2" t="s">
         <v>1204</v>
       </c>
@@ -25073,7 +25001,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="467" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B467" s="2" t="s">
         <v>1204</v>
       </c>
@@ -25108,7 +25036,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="468" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B468" s="2" t="s">
         <v>1204</v>
       </c>
@@ -25143,7 +25071,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="469" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B469" s="2" t="s">
         <v>1204</v>
       </c>
@@ -25178,7 +25106,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="470" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B470" s="2" t="s">
         <v>1204</v>
       </c>
@@ -25213,7 +25141,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="471" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B471" s="2" t="s">
         <v>1204</v>
       </c>
@@ -25248,7 +25176,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="472" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B472" s="2" t="s">
         <v>1203</v>
       </c>
@@ -25283,7 +25211,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="473" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B473" s="2" t="s">
         <v>1204</v>
       </c>
@@ -25318,7 +25246,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="474" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B474" s="2" t="s">
         <v>1204</v>
       </c>
@@ -25353,7 +25281,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="475" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B475" s="2" t="s">
         <v>1204</v>
       </c>
@@ -25388,7 +25316,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="476" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B476" s="2" t="s">
         <v>1204</v>
       </c>
@@ -25423,7 +25351,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="477" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B477" s="2" t="s">
         <v>1204</v>
       </c>
@@ -25458,7 +25386,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="478" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B478" s="2" t="s">
         <v>1204</v>
       </c>
@@ -25493,7 +25421,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="479" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B479" s="2" t="s">
         <v>1203</v>
       </c>
@@ -25528,7 +25456,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="480" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B480" s="2" t="s">
         <v>1205</v>
       </c>
@@ -25563,7 +25491,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="481" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B481" s="2" t="s">
         <v>1203</v>
       </c>
@@ -25598,7 +25526,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="482" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B482" s="2" t="s">
         <v>1205</v>
       </c>
@@ -25633,7 +25561,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="483" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B483" s="2" t="s">
         <v>1203</v>
       </c>
@@ -25668,7 +25596,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="484" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B484" s="2" t="s">
         <v>1203</v>
       </c>
@@ -25703,7 +25631,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="485" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B485" s="2" t="s">
         <v>1205</v>
       </c>
@@ -25738,7 +25666,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="486" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B486" s="2" t="s">
         <v>1203</v>
       </c>
@@ -25773,7 +25701,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="487" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B487" s="2" t="s">
         <v>1204</v>
       </c>
@@ -25808,7 +25736,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="488" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B488" s="2" t="s">
         <v>1203</v>
       </c>
@@ -25843,7 +25771,7 @@
         <v>2653</v>
       </c>
     </row>
-    <row r="489" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B489" s="2" t="s">
         <v>1204</v>
       </c>
@@ -25878,7 +25806,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="490" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B490" s="2" t="s">
         <v>1204</v>
       </c>
@@ -25913,7 +25841,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="491" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B491" s="2" t="s">
         <v>1203</v>
       </c>
@@ -25948,7 +25876,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="492" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B492" s="2" t="s">
         <v>1203</v>
       </c>
@@ -25983,7 +25911,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="493" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B493" s="2" t="s">
         <v>1203</v>
       </c>
@@ -26018,7 +25946,7 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="494" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B494" s="2" t="s">
         <v>1204</v>
       </c>
@@ -26053,7 +25981,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="495" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B495" s="2" t="s">
         <v>1203</v>
       </c>
@@ -26088,7 +26016,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="496" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B496" s="2" t="s">
         <v>1203</v>
       </c>
@@ -26123,7 +26051,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="497" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B497" s="2" t="s">
         <v>1203</v>
       </c>
@@ -26158,7 +26086,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="498" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B498" s="2" t="s">
         <v>1203</v>
       </c>
@@ -26193,7 +26121,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="499" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B499" s="2" t="s">
         <v>1204</v>
       </c>
@@ -26228,7 +26156,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="500" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B500" s="2" t="s">
         <v>1203</v>
       </c>
@@ -26263,7 +26191,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="501" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B501" s="2" t="s">
         <v>1203</v>
       </c>
@@ -26298,7 +26226,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="502" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B502" s="2" t="s">
         <v>1203</v>
       </c>
@@ -26333,7 +26261,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="503" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B503" s="2" t="s">
         <v>1205</v>
       </c>
@@ -26368,7 +26296,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="504" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B504" s="2" t="s">
         <v>1203</v>
       </c>
@@ -26403,7 +26331,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="505" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B505" s="2" t="s">
         <v>1203</v>
       </c>
@@ -26438,7 +26366,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="506" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B506" s="4" t="s">
         <v>1203</v>
       </c>
@@ -26473,7 +26401,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="507" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B507" s="2" t="s">
         <v>1203</v>
       </c>
@@ -26508,7 +26436,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="508" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B508" s="2" t="s">
         <v>1204</v>
       </c>
@@ -26543,7 +26471,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="509" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B509" s="2" t="s">
         <v>1204</v>
       </c>
@@ -26578,7 +26506,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="510" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B510" s="2" t="s">
         <v>1204</v>
       </c>
@@ -26613,7 +26541,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="511" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B511" s="2" t="s">
         <v>1203</v>
       </c>
@@ -26648,7 +26576,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="512" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B512" s="2" t="s">
         <v>1204</v>
       </c>
@@ -26683,7 +26611,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="513" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B513" s="2" t="s">
         <v>1203</v>
       </c>
@@ -26718,7 +26646,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="514" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B514" s="2" t="s">
         <v>1203</v>
       </c>
@@ -26753,7 +26681,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="515" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B515" s="2" t="s">
         <v>1204</v>
       </c>
@@ -26788,7 +26716,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="516" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B516" s="2" t="s">
         <v>1204</v>
       </c>
@@ -26823,7 +26751,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="517" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B517" s="2" t="s">
         <v>1203</v>
       </c>
@@ -26858,7 +26786,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="518" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B518" s="2" t="s">
         <v>1203</v>
       </c>
@@ -26893,7 +26821,7 @@
         <v>2659</v>
       </c>
     </row>
-    <row r="519" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B519" s="2" t="s">
         <v>1204</v>
       </c>
@@ -26928,7 +26856,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="520" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B520" s="2" t="s">
         <v>1203</v>
       </c>
@@ -26963,7 +26891,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="521" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B521" s="2" t="s">
         <v>1205</v>
       </c>
@@ -26998,7 +26926,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="522" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B522" s="2" t="s">
         <v>1203</v>
       </c>
@@ -27033,7 +26961,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="523" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B523" s="2" t="s">
         <v>1205</v>
       </c>
@@ -27068,7 +26996,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="524" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B524" s="2" t="s">
         <v>1204</v>
       </c>
@@ -27103,7 +27031,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="525" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B525" s="2" t="s">
         <v>1203</v>
       </c>
@@ -27138,7 +27066,7 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="526" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B526" s="2" t="s">
         <v>1204</v>
       </c>
@@ -27173,7 +27101,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="527" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B527" s="2" t="s">
         <v>1204</v>
       </c>
@@ -27208,7 +27136,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="528" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B528" s="2" t="s">
         <v>1204</v>
       </c>
@@ -27243,7 +27171,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="529" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B529" s="2" t="s">
         <v>1203</v>
       </c>
@@ -27278,7 +27206,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="530" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B530" s="2" t="s">
         <v>1204</v>
       </c>
@@ -27313,7 +27241,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="531" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B531" s="2" t="s">
         <v>1204</v>
       </c>
@@ -27348,7 +27276,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="532" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B532" s="2" t="s">
         <v>1203</v>
       </c>
@@ -27383,7 +27311,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="533" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B533" s="4" t="s">
         <v>1204</v>
       </c>
@@ -27418,7 +27346,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="534" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B534" s="2" t="s">
         <v>1204</v>
       </c>
@@ -27453,7 +27381,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="535" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B535" s="2" t="s">
         <v>1203</v>
       </c>
@@ -27488,7 +27416,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="536" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B536" s="2" t="s">
         <v>1203</v>
       </c>
@@ -27523,7 +27451,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="537" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B537" s="2" t="s">
         <v>1203</v>
       </c>
@@ -27558,7 +27486,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="538" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B538" s="2" t="s">
         <v>1204</v>
       </c>
@@ -27593,7 +27521,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="539" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B539" s="2" t="s">
         <v>1203</v>
       </c>
@@ -27628,7 +27556,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="540" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B540" s="2" t="s">
         <v>1204</v>
       </c>
@@ -27663,7 +27591,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="541" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B541" s="2" t="s">
         <v>1204</v>
       </c>
@@ -27698,7 +27626,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="542" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B542" s="2" t="s">
         <v>1203</v>
       </c>
@@ -27733,7 +27661,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="543" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B543" s="2" t="s">
         <v>1203</v>
       </c>
@@ -27768,7 +27696,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="544" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B544" s="2" t="s">
         <v>1203</v>
       </c>
@@ -27803,7 +27731,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="545" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B545" s="2" t="s">
         <v>1203</v>
       </c>
@@ -27838,7 +27766,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="546" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B546" s="2" t="s">
         <v>1204</v>
       </c>
@@ -27873,7 +27801,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="547" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B547" s="2" t="s">
         <v>1203</v>
       </c>
@@ -27908,7 +27836,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="548" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B548" s="2" t="s">
         <v>1204</v>
       </c>
@@ -27943,7 +27871,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="549" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B549" s="2" t="s">
         <v>1203</v>
       </c>
@@ -27978,7 +27906,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="550" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B550" s="2" t="s">
         <v>1203</v>
       </c>
@@ -28013,7 +27941,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="551" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B551" s="2" t="s">
         <v>1204</v>
       </c>
@@ -28048,7 +27976,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="552" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B552" s="2" t="s">
         <v>1203</v>
       </c>
@@ -28083,7 +28011,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="553" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B553" s="2" t="s">
         <v>1204</v>
       </c>
@@ -28118,7 +28046,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="554" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B554" s="2" t="s">
         <v>1203</v>
       </c>
@@ -28153,7 +28081,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="555" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B555" s="2" t="s">
         <v>1203</v>
       </c>
@@ -28188,7 +28116,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="556" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B556" s="2" t="s">
         <v>1205</v>
       </c>
@@ -28223,7 +28151,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="557" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B557" s="2" t="s">
         <v>1203</v>
       </c>
@@ -28258,7 +28186,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="558" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B558" s="2" t="s">
         <v>1203</v>
       </c>
@@ -28293,7 +28221,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="559" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B559" s="2" t="s">
         <v>1203</v>
       </c>
@@ -28328,7 +28256,7 @@
         <v>2462</v>
       </c>
     </row>
-    <row r="560" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B560" s="2" t="s">
         <v>1203</v>
       </c>
@@ -28363,7 +28291,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="561" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B561" s="2" t="s">
         <v>1203</v>
       </c>
@@ -28398,7 +28326,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="562" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B562" s="2" t="s">
         <v>1203</v>
       </c>
@@ -28433,7 +28361,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="563" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B563" s="2" t="s">
         <v>1205</v>
       </c>
@@ -28468,7 +28396,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="564" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B564" s="2" t="s">
         <v>1204</v>
       </c>
@@ -28503,7 +28431,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="565" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B565" s="2" t="s">
         <v>1203</v>
       </c>
@@ -28538,7 +28466,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="566" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B566" s="2" t="s">
         <v>1204</v>
       </c>
@@ -28573,7 +28501,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="567" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B567" s="2" t="s">
         <v>1204</v>
       </c>
@@ -28608,7 +28536,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="568" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B568" s="2" t="s">
         <v>1204</v>
       </c>
@@ -28643,7 +28571,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="569" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B569" s="2" t="s">
         <v>1204</v>
       </c>
@@ -28678,7 +28606,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="570" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B570" s="2" t="s">
         <v>1204</v>
       </c>
@@ -28713,7 +28641,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="571" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B571" s="2" t="s">
         <v>1203</v>
       </c>
@@ -28748,7 +28676,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="572" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B572" s="2" t="s">
         <v>1204</v>
       </c>
@@ -28783,7 +28711,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="573" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B573" s="2" t="s">
         <v>1204</v>
       </c>
@@ -28818,7 +28746,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="574" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B574" s="2" t="s">
         <v>1204</v>
       </c>
@@ -28853,7 +28781,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="575" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B575" s="2" t="s">
         <v>1204</v>
       </c>
@@ -28888,7 +28816,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="576" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B576" s="2" t="s">
         <v>1203</v>
       </c>
@@ -28923,7 +28851,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="577" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B577" s="2" t="s">
         <v>1204</v>
       </c>
@@ -28958,7 +28886,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="578" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B578" s="2" t="s">
         <v>1203</v>
       </c>
@@ -28993,7 +28921,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="579" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B579" s="2" t="s">
         <v>1203</v>
       </c>
@@ -29028,7 +28956,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="580" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B580" s="2" t="s">
         <v>1204</v>
       </c>
@@ -29063,7 +28991,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="581" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B581" s="2" t="s">
         <v>1204</v>
       </c>
@@ -29098,7 +29026,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="582" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B582" s="2" t="s">
         <v>1203</v>
       </c>
@@ -29133,7 +29061,7 @@
         <v>2647</v>
       </c>
     </row>
-    <row r="583" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B583" s="2" t="s">
         <v>1203</v>
       </c>
@@ -29168,7 +29096,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="584" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B584" s="2" t="s">
         <v>1203</v>
       </c>
@@ -29203,7 +29131,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="585" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B585" s="2" t="s">
         <v>1204</v>
       </c>
@@ -29238,7 +29166,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="586" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B586" s="2" t="s">
         <v>1203</v>
       </c>
@@ -29273,7 +29201,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="587" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B587" s="2" t="s">
         <v>1203</v>
       </c>
@@ -29308,7 +29236,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="588" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B588" s="2" t="s">
         <v>1203</v>
       </c>
@@ -29343,7 +29271,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="589" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B589" s="2" t="s">
         <v>1203</v>
       </c>
@@ -29378,7 +29306,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="590" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B590" s="2" t="s">
         <v>1204</v>
       </c>
@@ -29413,7 +29341,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="591" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B591" s="2" t="s">
         <v>1203</v>
       </c>
@@ -29448,7 +29376,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="592" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B592" s="2" t="s">
         <v>1204</v>
       </c>
@@ -29483,7 +29411,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="593" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B593" s="2" t="s">
         <v>1203</v>
       </c>
@@ -29553,7 +29481,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="595" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B595" s="2" t="s">
         <v>1204</v>
       </c>
@@ -29588,7 +29516,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="596" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B596" s="2" t="s">
         <v>1204</v>
       </c>
@@ -29623,7 +29551,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="597" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B597" s="2" t="s">
         <v>1204</v>
       </c>
@@ -29658,7 +29586,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="598" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B598" s="2" t="s">
         <v>1204</v>
       </c>
@@ -29693,7 +29621,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="599" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B599" s="2" t="s">
         <v>1203</v>
       </c>
@@ -29728,7 +29656,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="600" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B600" s="2" t="s">
         <v>1203</v>
       </c>
@@ -29763,7 +29691,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="601" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B601" s="2" t="s">
         <v>1203</v>
       </c>
@@ -29798,7 +29726,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="602" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B602" s="2" t="s">
         <v>1203</v>
       </c>
@@ -29833,7 +29761,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="603" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B603" s="2" t="s">
         <v>1203</v>
       </c>
@@ -29868,7 +29796,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="604" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B604" s="2" t="s">
         <v>1203</v>
       </c>
@@ -29903,7 +29831,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="605" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B605" s="2" t="s">
         <v>1203</v>
       </c>
@@ -29938,7 +29866,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="606" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B606" s="2" t="s">
         <v>1203</v>
       </c>
@@ -29973,7 +29901,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="607" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B607" s="2" t="s">
         <v>1203</v>
       </c>
@@ -30008,7 +29936,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="608" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B608" s="2" t="s">
         <v>1203</v>
       </c>
@@ -30043,7 +29971,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="609" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B609" s="2" t="s">
         <v>1205</v>
       </c>
@@ -30078,7 +30006,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="610" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B610" s="2" t="s">
         <v>1203</v>
       </c>
@@ -30113,7 +30041,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="611" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B611" s="2" t="s">
         <v>1203</v>
       </c>
@@ -30148,7 +30076,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="612" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B612" s="2" t="s">
         <v>1204</v>
       </c>
@@ -30183,7 +30111,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="613" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B613" s="2" t="s">
         <v>1203</v>
       </c>
@@ -30218,7 +30146,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="614" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B614" s="2" t="s">
         <v>1204</v>
       </c>
@@ -30253,7 +30181,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="615" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B615" s="2" t="s">
         <v>1204</v>
       </c>
@@ -30288,7 +30216,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="616" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B616" s="2" t="s">
         <v>1203</v>
       </c>
@@ -30323,7 +30251,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="617" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B617" s="2" t="s">
         <v>1204</v>
       </c>
@@ -30358,7 +30286,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="618" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B618" s="2" t="s">
         <v>1203</v>
       </c>
@@ -30393,7 +30321,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="619" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B619" s="2" t="s">
         <v>1204</v>
       </c>
@@ -30428,7 +30356,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="620" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B620" s="2" t="s">
         <v>1203</v>
       </c>
@@ -30463,7 +30391,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="621" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B621" s="2" t="s">
         <v>1203</v>
       </c>
@@ -30498,7 +30426,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="622" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B622" s="2" t="s">
         <v>1205</v>
       </c>
@@ -30533,7 +30461,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="623" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B623" s="2" t="s">
         <v>1203</v>
       </c>
@@ -30568,7 +30496,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="624" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B624" s="2" t="s">
         <v>1203</v>
       </c>
@@ -30603,7 +30531,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="625" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B625" s="2" t="s">
         <v>1204</v>
       </c>
@@ -30638,7 +30566,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="626" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B626" s="2" t="s">
         <v>1203</v>
       </c>
@@ -30673,7 +30601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B627" s="2" t="s">
         <v>1204</v>
       </c>
@@ -30708,7 +30636,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="628" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B628" s="2" t="s">
         <v>1203</v>
       </c>
@@ -30743,7 +30671,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="629" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B629" s="2" t="s">
         <v>1204</v>
       </c>
@@ -30778,7 +30706,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="630" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B630" s="2" t="s">
         <v>1204</v>
       </c>
@@ -30813,7 +30741,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="631" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B631" s="2" t="s">
         <v>1203</v>
       </c>
@@ -30848,7 +30776,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="632" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B632" s="2" t="s">
         <v>1204</v>
       </c>
@@ -30883,7 +30811,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="633" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B633" s="2" t="s">
         <v>1204</v>
       </c>
@@ -30918,7 +30846,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="634" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B634" s="2" t="s">
         <v>1204</v>
       </c>
@@ -30953,7 +30881,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="635" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B635" s="2" t="s">
         <v>1204</v>
       </c>
@@ -30988,7 +30916,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="636" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B636" s="2" t="s">
         <v>1203</v>
       </c>
@@ -31023,7 +30951,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="637" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B637" s="2" t="s">
         <v>1205</v>
       </c>
@@ -31058,7 +30986,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="638" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B638" s="2" t="s">
         <v>1204</v>
       </c>
@@ -31093,7 +31021,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="639" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B639" s="2" t="s">
         <v>1204</v>
       </c>
@@ -31128,7 +31056,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="640" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B640" s="2" t="s">
         <v>1204</v>
       </c>
@@ -31163,7 +31091,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="641" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B641" s="2" t="s">
         <v>1204</v>
       </c>
@@ -31198,7 +31126,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="642" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B642" s="2" t="s">
         <v>1204</v>
       </c>
@@ -31233,7 +31161,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="643" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B643" s="2" t="s">
         <v>1203</v>
       </c>
@@ -31268,7 +31196,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="644" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B644" s="2" t="s">
         <v>1204</v>
       </c>
@@ -31303,7 +31231,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="645" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B645" s="2" t="s">
         <v>1203</v>
       </c>
@@ -31338,7 +31266,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="646" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B646" s="2" t="s">
         <v>1203</v>
       </c>
@@ -31373,7 +31301,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="647" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B647" s="2" t="s">
         <v>1203</v>
       </c>
@@ -31408,7 +31336,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="648" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B648" s="2" t="s">
         <v>1204</v>
       </c>
@@ -31443,7 +31371,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="649" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B649" s="2" t="s">
         <v>1204</v>
       </c>
@@ -31478,7 +31406,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="650" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B650" s="2" t="s">
         <v>1204</v>
       </c>
@@ -31513,7 +31441,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="651" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B651" s="2" t="s">
         <v>1203</v>
       </c>
@@ -31548,7 +31476,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="652" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B652" s="2" t="s">
         <v>1204</v>
       </c>
@@ -31583,7 +31511,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="653" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B653" s="2" t="s">
         <v>1203</v>
       </c>
@@ -31618,7 +31546,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="654" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B654" s="2" t="s">
         <v>1203</v>
       </c>
@@ -31653,7 +31581,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="655" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B655" s="2" t="s">
         <v>1204</v>
       </c>
@@ -31688,7 +31616,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="656" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B656" s="2" t="s">
         <v>1204</v>
       </c>
@@ -31723,7 +31651,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="657" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B657" s="2" t="s">
         <v>1203</v>
       </c>
@@ -31758,7 +31686,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="658" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B658" s="2" t="s">
         <v>1203</v>
       </c>
@@ -31793,7 +31721,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="659" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B659" s="2" t="s">
         <v>1204</v>
       </c>
@@ -31828,7 +31756,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="660" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B660" s="2" t="s">
         <v>1204</v>
       </c>
@@ -31863,7 +31791,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="661" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B661" s="2" t="s">
         <v>1203</v>
       </c>
@@ -31898,7 +31826,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="662" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B662" s="2" t="s">
         <v>1204</v>
       </c>
@@ -31933,7 +31861,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="663" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B663" s="2" t="s">
         <v>1204</v>
       </c>
@@ -31968,7 +31896,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="664" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B664" s="2" t="s">
         <v>1203</v>
       </c>
@@ -32003,7 +31931,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="665" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B665" s="2" t="s">
         <v>1203</v>
       </c>
@@ -32038,7 +31966,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="666" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B666" s="2" t="s">
         <v>1204</v>
       </c>
@@ -32073,7 +32001,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="667" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B667" s="2" t="s">
         <v>1203</v>
       </c>
@@ -32108,7 +32036,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="668" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B668" s="2" t="s">
         <v>1203</v>
       </c>
@@ -32143,7 +32071,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="669" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B669" s="2" t="s">
         <v>1204</v>
       </c>
@@ -32178,7 +32106,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="670" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B670" s="2" t="s">
         <v>1204</v>
       </c>
@@ -32213,7 +32141,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="671" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B671" s="2" t="s">
         <v>1203</v>
       </c>
@@ -32248,7 +32176,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="672" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B672" s="2" t="s">
         <v>1203</v>
       </c>
@@ -32283,7 +32211,7 @@
         <v>2619</v>
       </c>
     </row>
-    <row r="673" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B673" s="2" t="s">
         <v>1203</v>
       </c>
@@ -32318,7 +32246,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="674" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B674" s="2" t="s">
         <v>1204</v>
       </c>
@@ -32351,7 +32279,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="675" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B675" s="2" t="s">
         <v>1203</v>
       </c>
@@ -32386,7 +32314,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="676" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B676" s="2" t="s">
         <v>1205</v>
       </c>
@@ -32421,7 +32349,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="677" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B677" s="2" t="s">
         <v>1204</v>
       </c>
@@ -32456,7 +32384,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="678" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B678" s="2" t="s">
         <v>1204</v>
       </c>
@@ -32491,7 +32419,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="679" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B679" s="2" t="s">
         <v>1203</v>
       </c>
@@ -32526,7 +32454,7 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="680" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B680" s="2" t="s">
         <v>1203</v>
       </c>
@@ -32561,7 +32489,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="681" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B681" s="2" t="s">
         <v>1203</v>
       </c>
@@ -32596,7 +32524,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="682" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B682" s="2" t="s">
         <v>1203</v>
       </c>
@@ -32631,7 +32559,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="683" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B683" s="2" t="s">
         <v>1203</v>
       </c>
@@ -32666,7 +32594,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="684" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B684" s="2" t="s">
         <v>1205</v>
       </c>
@@ -32701,7 +32629,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="685" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B685" s="2" t="s">
         <v>1204</v>
       </c>
@@ -32736,7 +32664,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="686" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B686" s="2" t="s">
         <v>1204</v>
       </c>
@@ -32771,7 +32699,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="687" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B687" s="2" t="s">
         <v>1203</v>
       </c>
@@ -32806,7 +32734,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="688" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B688" s="2" t="s">
         <v>1203</v>
       </c>
@@ -32841,7 +32769,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="689" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B689" s="2" t="s">
         <v>1203</v>
       </c>
@@ -32876,7 +32804,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="690" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B690" s="2" t="s">
         <v>1204</v>
       </c>
@@ -32911,7 +32839,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="691" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B691" s="2" t="s">
         <v>1203</v>
       </c>
@@ -32946,7 +32874,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="692" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B692" s="2" t="s">
         <v>1203</v>
       </c>
@@ -32981,7 +32909,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="693" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B693" s="2" t="s">
         <v>1203</v>
       </c>
@@ -33016,7 +32944,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="694" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B694" s="2" t="s">
         <v>1204</v>
       </c>
@@ -33051,7 +32979,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="695" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B695" s="2" t="s">
         <v>1203</v>
       </c>
@@ -33086,7 +33014,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="696" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B696" s="2" t="s">
         <v>1204</v>
       </c>
@@ -33121,7 +33049,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="697" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B697" s="2" t="s">
         <v>1205</v>
       </c>
@@ -33156,7 +33084,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="698" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B698" s="2" t="s">
         <v>1203</v>
       </c>
@@ -33191,7 +33119,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="699" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B699" s="2" t="s">
         <v>1203</v>
       </c>
@@ -33226,7 +33154,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="700" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B700" s="2" t="s">
         <v>1203</v>
       </c>
@@ -33261,7 +33189,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="701" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B701" s="2" t="s">
         <v>1204</v>
       </c>
@@ -33296,7 +33224,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="702" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B702" s="2" t="s">
         <v>1203</v>
       </c>
@@ -33331,7 +33259,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="703" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B703" s="2" t="s">
         <v>1204</v>
       </c>
@@ -33366,7 +33294,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="704" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B704" s="2" t="s">
         <v>1204</v>
       </c>
@@ -33401,7 +33329,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="705" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B705" s="2" t="s">
         <v>1203</v>
       </c>
@@ -33436,7 +33364,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="706" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B706" s="2" t="s">
         <v>1204</v>
       </c>
@@ -33471,7 +33399,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="707" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B707" s="2" t="s">
         <v>1204</v>
       </c>
@@ -33506,7 +33434,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="708" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B708" s="2" t="s">
         <v>1203</v>
       </c>
@@ -33541,7 +33469,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="709" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B709" s="2" t="s">
         <v>1204</v>
       </c>
@@ -33576,7 +33504,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="710" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B710" s="2" t="s">
         <v>1204</v>
       </c>
@@ -33611,7 +33539,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="711" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B711" s="2" t="s">
         <v>1203</v>
       </c>
@@ -33646,7 +33574,7 @@
         <v>2662</v>
       </c>
     </row>
-    <row r="712" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B712" s="2" t="s">
         <v>1204</v>
       </c>
@@ -33681,7 +33609,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="713" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B713" s="2" t="s">
         <v>1204</v>
       </c>
@@ -33716,7 +33644,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="714" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B714" s="2" t="s">
         <v>1205</v>
       </c>
@@ -33751,7 +33679,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="715" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B715" s="2" t="s">
         <v>1203</v>
       </c>
@@ -33821,7 +33749,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="717" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B717" s="2" t="s">
         <v>1203</v>
       </c>
@@ -33856,7 +33784,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="718" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B718" s="2" t="s">
         <v>1203</v>
       </c>
@@ -33891,7 +33819,7 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="719" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B719" s="2" t="s">
         <v>1203</v>
       </c>
@@ -33926,7 +33854,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="720" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B720" s="2" t="s">
         <v>1203</v>
       </c>
@@ -33961,7 +33889,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="721" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B721" s="2" t="s">
         <v>1203</v>
       </c>
@@ -33996,7 +33924,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="722" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B722" s="2" t="s">
         <v>1204</v>
       </c>
@@ -34031,7 +33959,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="723" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B723" s="2" t="s">
         <v>1203</v>
       </c>
@@ -34066,7 +33994,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="724" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B724" s="2" t="s">
         <v>1204</v>
       </c>
@@ -34101,7 +34029,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="725" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B725" s="2" t="s">
         <v>1204</v>
       </c>
@@ -34136,7 +34064,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="726" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B726" s="2" t="s">
         <v>1203</v>
       </c>
@@ -34171,7 +34099,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="727" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B727" s="2" t="s">
         <v>1204</v>
       </c>
@@ -34206,7 +34134,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="728" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B728" s="2" t="s">
         <v>1203</v>
       </c>
@@ -34241,7 +34169,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="729" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B729" s="2" t="s">
         <v>1204</v>
       </c>
@@ -34276,7 +34204,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="730" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B730" s="2" t="s">
         <v>1204</v>
       </c>
@@ -34311,7 +34239,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="731" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B731" s="2" t="s">
         <v>1204</v>
       </c>
@@ -34346,7 +34274,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="732" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B732" s="2" t="s">
         <v>1204</v>
       </c>
@@ -34381,7 +34309,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="733" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B733" s="2" t="s">
         <v>1204</v>
       </c>
@@ -34416,7 +34344,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="734" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B734" s="2" t="s">
         <v>1203</v>
       </c>
@@ -34451,7 +34379,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="735" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B735" s="2" t="s">
         <v>1203</v>
       </c>
@@ -34486,7 +34414,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="736" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B736" s="2" t="s">
         <v>1204</v>
       </c>
@@ -34521,7 +34449,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="737" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B737" s="2" t="s">
         <v>1204</v>
       </c>
@@ -34556,7 +34484,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="738" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B738" s="2" t="s">
         <v>1204</v>
       </c>
@@ -34591,7 +34519,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="739" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B739" s="2" t="s">
         <v>1204</v>
       </c>
@@ -34626,7 +34554,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="740" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B740" s="2" t="s">
         <v>1204</v>
       </c>
@@ -34661,7 +34589,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="741" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B741" s="2" t="s">
         <v>1203</v>
       </c>
@@ -34696,7 +34624,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="742" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B742" s="2" t="s">
         <v>1203</v>
       </c>
@@ -34731,7 +34659,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="743" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B743" s="2" t="s">
         <v>1203</v>
       </c>
@@ -34766,7 +34694,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="744" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B744" s="2" t="s">
         <v>1203</v>
       </c>
@@ -34801,7 +34729,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="745" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B745" s="2" t="s">
         <v>1203</v>
       </c>
@@ -34836,7 +34764,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="746" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B746" s="2" t="s">
         <v>1203</v>
       </c>
@@ -34871,7 +34799,7 @@
         <v>2571</v>
       </c>
     </row>
-    <row r="747" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B747" s="2" t="s">
         <v>1203</v>
       </c>
@@ -34906,7 +34834,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="748" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B748" s="2" t="s">
         <v>1204</v>
       </c>
@@ -34941,7 +34869,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="749" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B749" s="2" t="s">
         <v>1204</v>
       </c>
@@ -34976,7 +34904,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="750" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B750" s="2" t="s">
         <v>1204</v>
       </c>
@@ -35011,7 +34939,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="751" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B751" s="2" t="s">
         <v>1204</v>
       </c>
@@ -35046,7 +34974,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="752" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B752" s="2" t="s">
         <v>1204</v>
       </c>
@@ -35081,7 +35009,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="753" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B753" s="2" t="s">
         <v>1204</v>
       </c>
@@ -35116,7 +35044,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="754" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B754" s="2" t="s">
         <v>1203</v>
       </c>
@@ -35151,7 +35079,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="755" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B755" s="2" t="s">
         <v>1204</v>
       </c>
@@ -35186,7 +35114,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="756" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B756" s="2" t="s">
         <v>1204</v>
       </c>
@@ -35221,7 +35149,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="757" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B757" s="2" t="s">
         <v>1204</v>
       </c>
@@ -35256,7 +35184,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="758" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B758" s="2" t="s">
         <v>1203</v>
       </c>
@@ -35291,7 +35219,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="759" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B759" s="2" t="s">
         <v>1203</v>
       </c>
@@ -35326,7 +35254,7 @@
         <v>2638</v>
       </c>
     </row>
-    <row r="760" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B760" s="2" t="s">
         <v>1204</v>
       </c>
@@ -35361,7 +35289,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="761" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B761" s="2" t="s">
         <v>1203</v>
       </c>
@@ -35396,7 +35324,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="762" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B762" s="2" t="s">
         <v>1204</v>
       </c>
@@ -35431,7 +35359,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="763" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B763" s="2" t="s">
         <v>1204</v>
       </c>
@@ -35466,7 +35394,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="764" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B764" s="2" t="s">
         <v>1203</v>
       </c>
@@ -35501,7 +35429,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="765" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B765" s="2" t="s">
         <v>1203</v>
       </c>
@@ -35542,872 +35470,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB2076F-DB0E-4379-8659-BE2167D2CF07}">
-  <dimension ref="B2:L25"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="24.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" customWidth="1"/>
-    <col min="5" max="5" width="28.44140625" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" customWidth="1"/>
-    <col min="7" max="7" width="23.44140625" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" customWidth="1"/>
-    <col min="9" max="9" width="23.109375" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" customWidth="1"/>
-    <col min="11" max="11" width="25.88671875" customWidth="1"/>
-    <col min="12" max="12" width="25.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:12" ht="60" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
-        <v>1202</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>763</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>2552</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>764</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>2551</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>2467</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>2290</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>2383</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>2553</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>2554</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>2555</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" ht="60" x14ac:dyDescent="0.3">
-      <c r="B3" s="12" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>1622</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>1181</v>
-      </c>
-      <c r="F3" s="13">
-        <v>45734</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>420</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>1626</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>1185</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>1552</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="60" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>1623</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>1182</v>
-      </c>
-      <c r="F4" s="3">
-        <v>45734</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>1399</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>958</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>1552</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="60" x14ac:dyDescent="0.3">
-      <c r="B5" s="12" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>529</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>1733</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>2056</v>
-      </c>
-      <c r="F5" s="13">
-        <v>45734</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>1352</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>911</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>1552</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="60" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>1348</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>907</v>
-      </c>
-      <c r="F6" s="3">
-        <v>45734</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>1361</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>1552</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="60" x14ac:dyDescent="0.3">
-      <c r="B7" s="12" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>1624</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>1183</v>
-      </c>
-      <c r="F7" s="13">
-        <v>45734</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>1242</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>801</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>1552</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="60" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>1924</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>2249</v>
-      </c>
-      <c r="F8" s="3">
-        <v>45734</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>1626</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>1185</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>1552</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="60" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>650</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>1852</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>2177</v>
-      </c>
-      <c r="F9" s="13">
-        <v>45734</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>420</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>1626</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>1185</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>1552</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="60" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>1721</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>2044</v>
-      </c>
-      <c r="F10" s="3">
-        <v>45734</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>1399</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>958</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>1552</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="60" x14ac:dyDescent="0.3">
-      <c r="B11" s="12" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>680</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>1882</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>2207</v>
-      </c>
-      <c r="F11" s="13">
-        <v>45734</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>1399</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>958</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>1552</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="60" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>1936</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>2261</v>
-      </c>
-      <c r="F12" s="3">
-        <v>45734</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>1626</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>1185</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>1552</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="60" x14ac:dyDescent="0.3">
-      <c r="B13" s="12" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>679</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>1881</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>2206</v>
-      </c>
-      <c r="F13" s="13">
-        <v>45734</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>1361</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>920</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>1552</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="60" x14ac:dyDescent="0.3">
-      <c r="B14" s="2" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>1242</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="F14" s="3">
-        <v>45734</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>1626</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>1185</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>1552</v>
-      </c>
-      <c r="L14" s="15" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="60" x14ac:dyDescent="0.3">
-      <c r="B15" s="12" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>552</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>1756</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>2079</v>
-      </c>
-      <c r="F15" s="13">
-        <v>45734</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>1399</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>958</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>1552</v>
-      </c>
-      <c r="L15" s="14" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="60" x14ac:dyDescent="0.3">
-      <c r="B16" s="2" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>1342</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>901</v>
-      </c>
-      <c r="F16" s="3">
-        <v>45734</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>1626</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>1185</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="K16" s="15" t="s">
-        <v>1552</v>
-      </c>
-      <c r="L16" s="15" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="60" x14ac:dyDescent="0.3">
-      <c r="B17" s="12" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>1443</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>1001</v>
-      </c>
-      <c r="F17" s="13">
-        <v>45734</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>1242</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>801</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>1552</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="60" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>1625</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>1184</v>
-      </c>
-      <c r="F18" s="3">
-        <v>45734</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>1352</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>911</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="K18" s="15" t="s">
-        <v>1552</v>
-      </c>
-      <c r="L18" s="15" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="60" x14ac:dyDescent="0.3">
-      <c r="B19" s="12" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>1451</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>1009</v>
-      </c>
-      <c r="F19" s="13">
-        <v>45734</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>1352</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>911</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="K19" s="14" t="s">
-        <v>1552</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="60" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>1439</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>998</v>
-      </c>
-      <c r="F20" s="3">
-        <v>45734</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>1352</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>911</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>1552</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" ht="60" x14ac:dyDescent="0.3">
-      <c r="B21" s="16" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>421</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>1627</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>1186</v>
-      </c>
-      <c r="F21" s="17">
-        <v>45734</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>1242</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>801</v>
-      </c>
-      <c r="J21" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="K21" s="18" t="s">
-        <v>1552</v>
-      </c>
-      <c r="L21" s="18" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" ht="60" x14ac:dyDescent="0.3">
-      <c r="B22" s="12" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>420</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>1626</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>1185</v>
-      </c>
-      <c r="F22" s="13">
-        <v>45734</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>1552</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>1110</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>2516</v>
-      </c>
-      <c r="K22" s="14" t="s">
-        <v>2344</v>
-      </c>
-      <c r="L22" s="14" t="s">
-        <v>2432</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="60" x14ac:dyDescent="0.3">
-      <c r="B23" s="2" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>1399</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>958</v>
-      </c>
-      <c r="F23" s="3">
-        <v>45734</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>1552</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>1110</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>2516</v>
-      </c>
-      <c r="K23" s="15" t="s">
-        <v>2344</v>
-      </c>
-      <c r="L23" s="15" t="s">
-        <v>2432</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="60" x14ac:dyDescent="0.3">
-      <c r="B24" s="12" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>1352</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>911</v>
-      </c>
-      <c r="F24" s="13">
-        <v>45734</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>1552</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>1110</v>
-      </c>
-      <c r="J24" s="14" t="s">
-        <v>2516</v>
-      </c>
-      <c r="K24" s="14" t="s">
-        <v>2344</v>
-      </c>
-      <c r="L24" s="14" t="s">
-        <v>2432</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" ht="60" x14ac:dyDescent="0.3">
-      <c r="B25" s="19" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>1361</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>920</v>
-      </c>
-      <c r="F25" s="20">
-        <v>45734</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>1552</v>
-      </c>
-      <c r="I25" s="19" t="s">
-        <v>1110</v>
-      </c>
-      <c r="J25" s="21" t="s">
-        <v>2516</v>
-      </c>
-      <c r="K25" s="21" t="s">
-        <v>2344</v>
-      </c>
-      <c r="L25" s="21" t="s">
-        <v>2432</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>